--- a/backend/fms_core/static/submission_templates/Sample_submission_v3_8_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_v3_8_0.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>UFG</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="V7" authorId="0">
@@ -227,7 +227,7 @@
     <t xml:space="preserve">ILLUMINA</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Stranded</t>
+    <t xml:space="preserve">Single stranded</t>
   </si>
   <si>
     <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_001</t>
@@ -278,10 +278,10 @@
     <t xml:space="preserve">DNBSEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">Double Stranded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_002</t>
+    <t xml:space="preserve">Double stranded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_002-IDT_10nt_UDI_i5_002</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7002-IDTU5002</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">OXFORD_NANOPORE</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_003</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_003-IDT_10nt_UDI_i5_003</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7003-IDTU5003</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">PACBIO_SMRT</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_004</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_004-IDT_10nt_UDI_i5_004</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7004-IDTU5004</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">16S</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_005</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_005-IDT_10nt_UDI_i5_005</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7005-IDTU5005</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">18S</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_006</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_006-IDT_10nt_UDI_i5_006</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7006-IDTU5006</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">miRNA</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_007</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_007-IDT_10nt_UDI_i5_007</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7007-IDTU5007</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">Saliva</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_008</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_008-IDT_10nt_UDI_i5_008</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7008-IDTU5008</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">Swab</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_009</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_009-IDT_10nt_UDI_i5_009</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7009-IDTU5009</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">Tumor</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_010</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_010-IDT_10nt_UDI_i5_010</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7010-IDTU5010</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">Buffy coat</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_011</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_011-IDT_10nt_UDI_i5_011</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7011-IDTU5011</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">Tail</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_012</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_012-IDT_10nt_UDI_i5_012</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7012-IDTU5012</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">A13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_013</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_013-IDT_10nt_UDI_i5_013</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7013-IDTU5013</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">A14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_014</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_014-IDT_10nt_UDI_i5_014</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7014-IDTU5014</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">A15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_015</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_015-IDT_10nt_UDI_i5_015</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7015-IDTU5015</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">A16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_016</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_016-IDT_10nt_UDI_i5_016</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7016-IDTU5016</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">A17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_017</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_017-IDT_10nt_UDI_i5_017</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7017-IDTU5017</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">A18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_018</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_018-IDT_10nt_UDI_i5_018</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7018-IDTU5018</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">A19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_019</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_019-IDT_10nt_UDI_i5_019</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7019-IDTU5019</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">A20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_020</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_020-IDT_10nt_UDI_i5_020</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7020-IDTU5020</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">A21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_021</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_021-IDT_10nt_UDI_i5_021</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7021-IDTU5021</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">A22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_022</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_022-IDT_10nt_UDI_i5_022</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7022-IDTU5022</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">A23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_023</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_023-IDT_10nt_UDI_i5_023</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7023-IDTU5023</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">A24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_024</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_024-IDT_10nt_UDI_i5_024</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7024-IDTU5024</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_024-MGI_Barcode2_UDB_024</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_025</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_025-IDT_10nt_UDI_i5_025</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7025-IDTU5025</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">C02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_026</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_026-IDT_10nt_UDI_i5_026</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7026-IDTU5026</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">C03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_027</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_027-IDT_10nt_UDI_i5_027</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7027-IDTU5027</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">C04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_028</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_028-IDT_10nt_UDI_i5_028</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7028-IDTU5028</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">C05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_029</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_029-IDT_10nt_UDI_i5_029</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7029-IDTU5029</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">C06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_030</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_030-IDT_10nt_UDI_i5_030</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7030-IDTU5030</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">C07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_031</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_031-IDT_10nt_UDI_i5_031</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7031-IDTU5031</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">C08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_032</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_032-IDT_10nt_UDI_i5_032</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7032-IDTU5032</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">C09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_033</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_033-IDT_10nt_UDI_i5_033</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7033-IDTU5033</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">C10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_034</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_034-IDT_10nt_UDI_i5_034</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7034-IDTU5034</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">C11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_035</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_035-IDT_10nt_UDI_i5_035</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7035-IDTU5035</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">C12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_036</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_036-IDT_10nt_UDI_i5_036</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7036-IDTU5036</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">B13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_037</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_037-IDT_10nt_UDI_i5_037</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7037-IDTU5037</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">B14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_038</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_038-IDT_10nt_UDI_i5_038</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7038-IDTU5038</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">B15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_039</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_039-IDT_10nt_UDI_i5_039</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7039-IDTU5039</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">B16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_040</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_040-IDT_10nt_UDI_i5_040</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7040-IDTU5040</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">B17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_041</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_041-IDT_10nt_UDI_i5_041</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7041-IDTU5041</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">B18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_042</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_042-IDT_10nt_UDI_i5_042</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7042-IDTU5042</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">B19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_043</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_043-IDT_10nt_UDI_i5_043</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7043-IDTU5043</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">B20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_044</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_044-IDT_10nt_UDI_i5_044</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7044-IDTU5044</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">B21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_045</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_045-IDT_10nt_UDI_i5_045</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7045-IDTU5045</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">B22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_046</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_046-IDT_10nt_UDI_i5_046</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7046-IDTU5046</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">B23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_047</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_047-IDT_10nt_UDI_i5_047</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7047-IDTU5047</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">B24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_048</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_048-IDT_10nt_UDI_i5_048</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7048-IDTU5048</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_048-MGI_Barcode2_UDB_048</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_049</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_049-IDT_10nt_UDI_i5_049</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7049-IDTU5049</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">E02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_050</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_050-IDT_10nt_UDI_i5_050</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7050-IDTU5050</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">E03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_051</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_051-IDT_10nt_UDI_i5_051</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7051-IDTU5051</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">E04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_052</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_052-IDT_10nt_UDI_i5_052</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7052-IDTU5052</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">E05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_053</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_053-IDT_10nt_UDI_i5_053</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7053-IDTU5053</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">E06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_054</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_054-IDT_10nt_UDI_i5_054</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7054-IDTU5054</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">E07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_055</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_055-IDT_10nt_UDI_i5_055</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7055-IDTU5055</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">E08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_056</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_056-IDT_10nt_UDI_i5_056</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7056-IDTU5056</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">E09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_057</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_057-IDT_10nt_UDI_i5_057</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7057-IDTU5057</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">E10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_058</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_058-IDT_10nt_UDI_i5_058</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7058-IDTU5058</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">E11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_059</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_059-IDT_10nt_UDI_i5_059</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7059-IDTU5059</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">E12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_060</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_060-IDT_10nt_UDI_i5_060</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7060-IDTU5060</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">C13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_061</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_061-IDT_10nt_UDI_i5_061</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7061-IDTU5061</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">C14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_062</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_062-IDT_10nt_UDI_i5_062</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7062-IDTU5062</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">C15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_063</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_063-IDT_10nt_UDI_i5_063</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7063-IDTU5063</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">C16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_064</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_064-IDT_10nt_UDI_i5_064</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7064-IDTU5064</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">C17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_065</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_065-IDT_10nt_UDI_i5_065</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7065-IDTU5065</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">C18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_066</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_066-IDT_10nt_UDI_i5_066</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7066-IDTU5066</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">C19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_067</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_067-IDT_10nt_UDI_i5_067</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7067-IDTU5067</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">C20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_068</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_068-IDT_10nt_UDI_i5_068</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7068-IDTU5068</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">C21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_069</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_069-IDT_10nt_UDI_i5_069</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7069-IDTU5069</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">C22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_070</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_070-IDT_10nt_UDI_i5_070</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7070-IDTU5070</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">C23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_071</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_071-IDT_10nt_UDI_i5_071</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7071-IDTU5071</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">C24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_072</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_072-IDT_10nt_UDI_i5_072</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7072-IDTU5072</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_072-MGI_Barcode2_UDB_072</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_073</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_073-IDT_10nt_UDI_i5_073</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7073-IDTU5073</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">G02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_074</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_074-IDT_10nt_UDI_i5_074</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7074-IDTU5074</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">G03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_075</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_075-IDT_10nt_UDI_i5_075</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7075-IDTU5075</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">G04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_076</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_076-IDT_10nt_UDI_i5_076</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7076-IDTU5076</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">G05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_077</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_077-IDT_10nt_UDI_i5_077</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7077-IDTU5077</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">G06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_078</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_078-IDT_10nt_UDI_i5_078</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7078-IDTU5078</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">G07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_079</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_079-IDT_10nt_UDI_i5_079</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7079-IDTU5079</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">G08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_080</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_080-IDT_10nt_UDI_i5_080</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7080-IDTU5080</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">G09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_081</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_081-IDT_10nt_UDI_i5_081</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7081-IDTU5081</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">G10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_082</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_082-IDT_10nt_UDI_i5_082</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7082-IDTU5082</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">G11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_083</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_083-IDT_10nt_UDI_i5_083</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7083-IDTU5083</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">G12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_084</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_084-IDT_10nt_UDI_i5_084</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7084-IDTU5084</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">D13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_085</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_085-IDT_10nt_UDI_i5_085</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7085-IDTU5085</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">D14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_086</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_086-IDT_10nt_UDI_i5_086</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7086-IDTU5086</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">D15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_087</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_087-IDT_10nt_UDI_i5_087</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7087-IDTU5087</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">D16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_088</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_088-IDT_10nt_UDI_i5_088</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7088-IDTU5088</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">D17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_089</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_089-IDT_10nt_UDI_i5_089</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7089-IDTU5089</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">D18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_090</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_090-IDT_10nt_UDI_i5_090</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7090-IDTU5090</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">D19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_091</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_091-IDT_10nt_UDI_i5_091</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7091-IDTU5091</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">D20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_092</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_092-IDT_10nt_UDI_i5_092</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7092-IDTU5092</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">D21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_093</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_093-IDT_10nt_UDI_i5_093</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7093-IDTU5093</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">D22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_094</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_094-IDT_10nt_UDI_i5_094</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7094-IDTU5094</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">D23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_095</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_095-IDT_10nt_UDI_i5_095</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7095-IDTU5095</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">D24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_096</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_096-IDT_10nt_UDI_i5_096</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7096-IDTU5096</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_096-MGI_Barcode2_UDB_096</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_097</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_097-IDT_10nt_UDI_i5_097</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7097-IDTU5097</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_097-MGI_Barcode2_UDB_097</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_098</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_098-IDT_10nt_UDI_i5_098</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7098-IDTU5098</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_098-MGI_Barcode2_UDB_098</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_099</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_099-IDT_10nt_UDI_i5_099</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7099-IDTU5099</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_099-MGI_Barcode2_UDB_099</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_100</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_100-IDT_10nt_UDI_i5_100</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7100-IDTU5100</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_100-MGI_Barcode2_UDB_100</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_101</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_101-IDT_10nt_UDI_i5_101</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7101-IDTU5101</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_101-MGI_Barcode2_UDB_101</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_102</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_102-IDT_10nt_UDI_i5_102</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7102-IDTU5102</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_102-MGI_Barcode2_UDB_102</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_103</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_103-IDT_10nt_UDI_i5_103</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7103-IDTU5103</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_103-MGI_Barcode2_UDB_103</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_104</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_104-IDT_10nt_UDI_i5_104</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7104-IDTU5104</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_104-MGI_Barcode2_UDB_104</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_105</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_105-IDT_10nt_UDI_i5_105</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7105-IDTU5105</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_105-MGI_Barcode2_UDB_105</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_106</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_106-IDT_10nt_UDI_i5_106</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7106-IDTU5106</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_106-MGI_Barcode2_UDB_106</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_107</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_107-IDT_10nt_UDI_i5_107</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7107-IDTU5107</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_107-MGI_Barcode2_UDB_107</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_108</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_108-IDT_10nt_UDI_i5_108</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7108-IDTU5108</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">E13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_109</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_109-IDT_10nt_UDI_i5_109</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7109-IDTU5109</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">E14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_110</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_110-IDT_10nt_UDI_i5_110</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7110-IDTU5110</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">E15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_111</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_111-IDT_10nt_UDI_i5_111</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7111-IDTU5111</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">E16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_112</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_112-IDT_10nt_UDI_i5_112</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7112-IDTU5112</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">E17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_113</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_113-IDT_10nt_UDI_i5_113</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7113-IDTU5113</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">E18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_114</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_114-IDT_10nt_UDI_i5_114</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7114-IDTU5114</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">E19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_115</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_115-IDT_10nt_UDI_i5_115</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7115-IDTU5115</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">E20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_116</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_116-IDT_10nt_UDI_i5_116</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7116-IDTU5116</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">E21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_117</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_117-IDT_10nt_UDI_i5_117</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7117-IDTU5117</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">E22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_118</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_118-IDT_10nt_UDI_i5_118</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7118-IDTU5118</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">E23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_119</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_119-IDT_10nt_UDI_i5_119</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7119-IDTU5119</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">E24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_120</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_120-IDT_10nt_UDI_i5_120</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7120-IDTU5120</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_120-MGI_Barcode2_UDB_120</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_121</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_121-IDT_10nt_UDI_i5_121</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7121-IDTU5121</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_121-MGI_Barcode2_UDB_121</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_122</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_122-IDT_10nt_UDI_i5_122</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7122-IDTU5122</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_122-MGI_Barcode2_UDB_122</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_123</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_123-IDT_10nt_UDI_i5_123</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7123-IDTU5123</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_123-MGI_Barcode2_UDB_123</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_124</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_124-IDT_10nt_UDI_i5_124</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7124-IDTU5124</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_124-MGI_Barcode2_UDB_124</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_125</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_125-IDT_10nt_UDI_i5_125</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7125-IDTU5125</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_125-MGI_Barcode2_UDB_125</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_126</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_126-IDT_10nt_UDI_i5_126</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7126-IDTU5126</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_126-MGI_Barcode2_UDB_126</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_127</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_127-IDT_10nt_UDI_i5_127</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7127-IDTU5127</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_127-MGI_Barcode2_UDB_127</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_128</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_128-IDT_10nt_UDI_i5_128</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7128-IDTU5128</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_128-MGI_Barcode2_UDB_128</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_129</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_129-IDT_10nt_UDI_i5_129</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7129-IDTU5129</t>
@@ -2993,7 +2993,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_129-MGI_Barcode2_UDB_129</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_130</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_130-IDT_10nt_UDI_i5_130</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7130-IDTU5130</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_130-MGI_Barcode2_UDB_130</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_131</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_131-IDT_10nt_UDI_i5_131</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7131-IDTU5131</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_131-MGI_Barcode2_UDB_131</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_132</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_132-IDT_10nt_UDI_i5_132</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7132-IDTU5132</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">F13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_133</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_133-IDT_10nt_UDI_i5_133</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7133-IDTU5133</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">F14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_134</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_134-IDT_10nt_UDI_i5_134</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7134-IDTU5134</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">F15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_135</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_135-IDT_10nt_UDI_i5_135</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7135-IDTU5135</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">F16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_136</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_136-IDT_10nt_UDI_i5_136</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7136-IDTU5136</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">F17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_137</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_137-IDT_10nt_UDI_i5_137</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7137-IDTU5137</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">F18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_138</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_138-IDT_10nt_UDI_i5_138</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7138-IDTU5138</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">F19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_139</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_139-IDT_10nt_UDI_i5_139</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7139-IDTU5139</t>
@@ -3137,7 +3137,7 @@
     <t xml:space="preserve">F20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_140</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_140-IDT_10nt_UDI_i5_140</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7140-IDTU5140</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">F21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_141</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_141-IDT_10nt_UDI_i5_141</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7141-IDTU5141</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">F22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_142</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_142-IDT_10nt_UDI_i5_142</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7142-IDTU5142</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">F23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_143</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_143-IDT_10nt_UDI_i5_143</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7143-IDTU5143</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">F24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_144</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_144-IDT_10nt_UDI_i5_144</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7144-IDTU5144</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_144-MGI_Barcode2_UDB_144</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_145</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_145-IDT_10nt_UDI_i5_145</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7145-IDTU5145</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_145-MGI_Barcode2_UDB_145</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_146</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_146-IDT_10nt_UDI_i5_146</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7146-IDTU5146</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_146-MGI_Barcode2_UDB_146</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_147</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_147-IDT_10nt_UDI_i5_147</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7147-IDTU5147</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_147-MGI_Barcode2_UDB_147</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_148</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_148-IDT_10nt_UDI_i5_148</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7148-IDTU5148</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_148-MGI_Barcode2_UDB_148</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_149</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_149-IDT_10nt_UDI_i5_149</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7149-IDTU5149</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_149-MGI_Barcode2_UDB_149</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_150</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_150-IDT_10nt_UDI_i5_150</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7150-IDTU5150</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_150-MGI_Barcode2_UDB_150</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_151</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_151-IDT_10nt_UDI_i5_151</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7151-IDTU5151</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_151-MGI_Barcode2_UDB_151</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_152</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_152-IDT_10nt_UDI_i5_152</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7152-IDTU5152</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_152-MGI_Barcode2_UDB_152</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_153</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_153-IDT_10nt_UDI_i5_153</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7153-IDTU5153</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_153-MGI_Barcode2_UDB_153</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_154</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_154-IDT_10nt_UDI_i5_154</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7154-IDTU5154</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_154-MGI_Barcode2_UDB_154</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_155</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_155-IDT_10nt_UDI_i5_155</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7155-IDTU5155</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_155-MGI_Barcode2_UDB_155</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_156</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_156-IDT_10nt_UDI_i5_156</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7156-IDTU5156</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">G13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_157</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_157-IDT_10nt_UDI_i5_157</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7157-IDTU5157</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">G14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_158</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_158-IDT_10nt_UDI_i5_158</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7158-IDTU5158</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">G15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_159</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_159-IDT_10nt_UDI_i5_159</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7159-IDTU5159</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">G16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_160</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_160-IDT_10nt_UDI_i5_160</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7160-IDTU5160</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">G17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_161</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_161-IDT_10nt_UDI_i5_161</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7161-IDTU5161</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">G18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_162</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_162-IDT_10nt_UDI_i5_162</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7162-IDTU5162</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">G19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_163</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_163-IDT_10nt_UDI_i5_163</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7163-IDTU5163</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">G20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_164</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_164-IDT_10nt_UDI_i5_164</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7164-IDTU5164</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">G21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_165</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_165-IDT_10nt_UDI_i5_165</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7165-IDTU5165</t>
@@ -3491,7 +3491,7 @@
     <t xml:space="preserve">G22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_166</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_166-IDT_10nt_UDI_i5_166</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7166-IDTU5166</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">G23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_167</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_167-IDT_10nt_UDI_i5_167</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7167-IDTU5167</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">G24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_168</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_168-IDT_10nt_UDI_i5_168</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7168-IDTU5168</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_168-MGI_Barcode2_UDB_168</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_169</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_169-IDT_10nt_UDI_i5_169</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7169-IDTU5169</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_169-MGI_Barcode2_UDB_169</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_170</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_170-IDT_10nt_UDI_i5_170</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7170-IDTU5170</t>
@@ -3557,7 +3557,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_170-MGI_Barcode2_UDB_170</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_171</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_171-IDT_10nt_UDI_i5_171</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7171-IDTU5171</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_171-MGI_Barcode2_UDB_171</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_172</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_172-IDT_10nt_UDI_i5_172</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7172-IDTU5172</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_172-MGI_Barcode2_UDB_172</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_173</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_173-IDT_10nt_UDI_i5_173</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7173-IDTU5173</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_173-MGI_Barcode2_UDB_173</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_174</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_174-IDT_10nt_UDI_i5_174</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7174-IDTU5174</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_174-MGI_Barcode2_UDB_174</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_175</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_175-IDT_10nt_UDI_i5_175</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7175-IDTU5175</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_175-MGI_Barcode2_UDB_175</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_176</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_176-IDT_10nt_UDI_i5_176</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7176-IDTU5176</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_176-MGI_Barcode2_UDB_176</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_177</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_177-IDT_10nt_UDI_i5_177</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7177-IDTU5177</t>
@@ -3641,7 +3641,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_177-MGI_Barcode2_UDB_177</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_178</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_178-IDT_10nt_UDI_i5_178</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7178-IDTU5178</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_178-MGI_Barcode2_UDB_178</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_179</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_179-IDT_10nt_UDI_i5_179</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7179-IDTU5179</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">MGI_Barcode1_UDB_179-MGI_Barcode2_UDB_179</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_180</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_180-IDT_10nt_UDI_i5_180</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7180-IDTU5180</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">H13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_181</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_181-IDT_10nt_UDI_i5_181</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7181-IDTU5181</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">H14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_182</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_182-IDT_10nt_UDI_i5_182</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7182-IDTU5182</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">H15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_183</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_183-IDT_10nt_UDI_i5_183</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7183-IDTU5183</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">H16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_184</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_184-IDT_10nt_UDI_i5_184</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7184-IDTU5184</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">H17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_185</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_185-IDT_10nt_UDI_i5_185</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7185-IDTU5185</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">H18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_186</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_186-IDT_10nt_UDI_i5_186</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7186-IDTU5186</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">H19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_187</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_187-IDT_10nt_UDI_i5_187</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7187-IDTU5187</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">H20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_188</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_188-IDT_10nt_UDI_i5_188</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7188-IDTU5188</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">H21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_189</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_189-IDT_10nt_UDI_i5_189</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7189-IDTU5189</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">H22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_190</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_190-IDT_10nt_UDI_i5_190</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7190-IDTU5190</t>
@@ -3830,7 +3830,7 @@
     <t xml:space="preserve">H23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_191</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_191-IDT_10nt_UDI_i5_191</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7191-IDTU5191</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">H24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_192</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_192-IDT_10nt_UDI_i5_192</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7192-IDTU5192</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">I01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_193</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_193-IDT_10nt_UDI_i5_193</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7193-IDTU5193</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">I02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_194</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_194-IDT_10nt_UDI_i5_194</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7194-IDTU5194</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">I03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_195</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_195-IDT_10nt_UDI_i5_195</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7195-IDTU5195</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">I04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_196</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_196-IDT_10nt_UDI_i5_196</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7196-IDTU5196</t>
@@ -3908,7 +3908,7 @@
     <t xml:space="preserve">I05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_197</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_197-IDT_10nt_UDI_i5_197</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7197-IDTU5197</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">I06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_198</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_198-IDT_10nt_UDI_i5_198</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7198-IDTU5198</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">I07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_199</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_199-IDT_10nt_UDI_i5_199</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7199-IDTU5199</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">I08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_200</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_200-IDT_10nt_UDI_i5_200</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7200-IDTU5200</t>
@@ -3956,7 +3956,7 @@
     <t xml:space="preserve">I09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_201</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_201-IDT_10nt_UDI_i5_201</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7201-IDTU5201</t>
@@ -3968,7 +3968,7 @@
     <t xml:space="preserve">I10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_202</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_202-IDT_10nt_UDI_i5_202</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7202-IDTU5202</t>
@@ -3980,7 +3980,7 @@
     <t xml:space="preserve">I11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_203</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_203-IDT_10nt_UDI_i5_203</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7203-IDTU5203</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">I12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_204</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_204-IDT_10nt_UDI_i5_204</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7204-IDTU5204</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">I13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_205</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_205-IDT_10nt_UDI_i5_205</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7205-IDTU5205</t>
@@ -4016,7 +4016,7 @@
     <t xml:space="preserve">I14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_206</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_206-IDT_10nt_UDI_i5_206</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7206-IDTU5206</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">I15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_207</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_207-IDT_10nt_UDI_i5_207</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7207-IDTU5207</t>
@@ -4040,7 +4040,7 @@
     <t xml:space="preserve">I16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_208</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_208-IDT_10nt_UDI_i5_208</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7208-IDTU5208</t>
@@ -4052,7 +4052,7 @@
     <t xml:space="preserve">I17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_209</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_209-IDT_10nt_UDI_i5_209</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7209-IDTU5209</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">I18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_210</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_210-IDT_10nt_UDI_i5_210</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7210-IDTU5210</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">I19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_211</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_211-IDT_10nt_UDI_i5_211</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7211-IDTU5211</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">I20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_212</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_212-IDT_10nt_UDI_i5_212</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7212-IDTU5212</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">I21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_213</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_213-IDT_10nt_UDI_i5_213</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7213-IDTU5213</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">I22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_214</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_214-IDT_10nt_UDI_i5_214</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7214-IDTU5214</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">I23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_215</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_215-IDT_10nt_UDI_i5_215</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7215-IDTU5215</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">I24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_216</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_216-IDT_10nt_UDI_i5_216</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7216-IDTU5216</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">J01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_217</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_217-IDT_10nt_UDI_i5_217</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7217-IDTU5217</t>
@@ -4160,7 +4160,7 @@
     <t xml:space="preserve">J02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_218</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_218-IDT_10nt_UDI_i5_218</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7218-IDTU5218</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">J03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_219</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_219-IDT_10nt_UDI_i5_219</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7219-IDTU5219</t>
@@ -4184,7 +4184,7 @@
     <t xml:space="preserve">J04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_220</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_220-IDT_10nt_UDI_i5_220</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7220-IDTU5220</t>
@@ -4196,7 +4196,7 @@
     <t xml:space="preserve">J05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_221</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_221-IDT_10nt_UDI_i5_221</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7221-IDTU5221</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">J06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_222</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_222-IDT_10nt_UDI_i5_222</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7222-IDTU5222</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">J07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_223</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_223-IDT_10nt_UDI_i5_223</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7223-IDTU5223</t>
@@ -4232,7 +4232,7 @@
     <t xml:space="preserve">J08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_224</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_224-IDT_10nt_UDI_i5_224</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7224-IDTU5224</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">J09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_225</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_225-IDT_10nt_UDI_i5_225</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7225-IDTU5225</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">J10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_226</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_226-IDT_10nt_UDI_i5_226</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7226-IDTU5226</t>
@@ -4268,7 +4268,7 @@
     <t xml:space="preserve">J11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_227</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_227-IDT_10nt_UDI_i5_227</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7227-IDTU5227</t>
@@ -4280,7 +4280,7 @@
     <t xml:space="preserve">J12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_228</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_228-IDT_10nt_UDI_i5_228</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7228-IDTU5228</t>
@@ -4292,7 +4292,7 @@
     <t xml:space="preserve">J13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_229</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_229-IDT_10nt_UDI_i5_229</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7229-IDTU5229</t>
@@ -4304,7 +4304,7 @@
     <t xml:space="preserve">J14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_230</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_230-IDT_10nt_UDI_i5_230</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7230-IDTU5230</t>
@@ -4316,7 +4316,7 @@
     <t xml:space="preserve">J15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_231</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_231-IDT_10nt_UDI_i5_231</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7231-IDTU5231</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">J16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_232</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_232-IDT_10nt_UDI_i5_232</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7232-IDTU5232</t>
@@ -4340,7 +4340,7 @@
     <t xml:space="preserve">J17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_233</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_233-IDT_10nt_UDI_i5_233</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7233-IDTU5233</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">J18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_234</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_234-IDT_10nt_UDI_i5_234</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7234-IDTU5234</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">J19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_235</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_235-IDT_10nt_UDI_i5_235</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7235-IDTU5235</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">J20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_236</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_236-IDT_10nt_UDI_i5_236</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7236-IDTU5236</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">J21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_237</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_237-IDT_10nt_UDI_i5_237</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7237-IDTU5237</t>
@@ -4400,7 +4400,7 @@
     <t xml:space="preserve">J22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_238</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_238-IDT_10nt_UDI_i5_238</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7238-IDTU5238</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">J23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_239</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_239-IDT_10nt_UDI_i5_239</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7239-IDTU5239</t>
@@ -4424,7 +4424,7 @@
     <t xml:space="preserve">J24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_240</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_240-IDT_10nt_UDI_i5_240</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7240-IDTU5240</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">K01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_241</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_241-IDT_10nt_UDI_i5_241</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7241-IDTU5241</t>
@@ -4448,7 +4448,7 @@
     <t xml:space="preserve">K02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_242</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_242-IDT_10nt_UDI_i5_242</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7242-IDTU5242</t>
@@ -4460,7 +4460,7 @@
     <t xml:space="preserve">K03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_243</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_243-IDT_10nt_UDI_i5_243</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7243-IDTU5243</t>
@@ -4472,7 +4472,7 @@
     <t xml:space="preserve">K04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_244</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_244-IDT_10nt_UDI_i5_244</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7244-IDTU5244</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">K05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_245</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_245-IDT_10nt_UDI_i5_245</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7245-IDTU5245</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">K06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_246</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_246-IDT_10nt_UDI_i5_246</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7246-IDTU5246</t>
@@ -4508,7 +4508,7 @@
     <t xml:space="preserve">K07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_247</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_247-IDT_10nt_UDI_i5_247</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7247-IDTU5247</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">K08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_248</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_248-IDT_10nt_UDI_i5_248</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7248-IDTU5248</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">K09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_249</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_249-IDT_10nt_UDI_i5_249</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7249-IDTU5249</t>
@@ -4544,7 +4544,7 @@
     <t xml:space="preserve">K10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_250</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_250-IDT_10nt_UDI_i5_250</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7250-IDTU5250</t>
@@ -4556,7 +4556,7 @@
     <t xml:space="preserve">K11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_251</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_251-IDT_10nt_UDI_i5_251</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7251-IDTU5251</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">K12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_252</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_252-IDT_10nt_UDI_i5_252</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7252-IDTU5252</t>
@@ -4580,7 +4580,7 @@
     <t xml:space="preserve">K13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_253</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_253-IDT_10nt_UDI_i5_253</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7253-IDTU5253</t>
@@ -4592,7 +4592,7 @@
     <t xml:space="preserve">K14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_254</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_254-IDT_10nt_UDI_i5_254</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7254-IDTU5254</t>
@@ -4604,7 +4604,7 @@
     <t xml:space="preserve">K15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_255</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_255-IDT_10nt_UDI_i5_255</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7255-IDTU5255</t>
@@ -4616,7 +4616,7 @@
     <t xml:space="preserve">K16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_256</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_256-IDT_10nt_UDI_i5_256</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7256-IDTU5256</t>
@@ -4628,7 +4628,7 @@
     <t xml:space="preserve">K17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_257</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_257-IDT_10nt_UDI_i5_257</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7257-IDTU5257</t>
@@ -4640,7 +4640,7 @@
     <t xml:space="preserve">K18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_258</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_258-IDT_10nt_UDI_i5_258</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7258-IDTU5258</t>
@@ -4652,7 +4652,7 @@
     <t xml:space="preserve">K19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_259</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_259-IDT_10nt_UDI_i5_259</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7259-IDTU5259</t>
@@ -4664,7 +4664,7 @@
     <t xml:space="preserve">K20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_260</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_260-IDT_10nt_UDI_i5_260</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7260-IDTU5260</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">K21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_261</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_261-IDT_10nt_UDI_i5_261</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7261-IDTU5261</t>
@@ -4688,7 +4688,7 @@
     <t xml:space="preserve">K22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_262</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_262-IDT_10nt_UDI_i5_262</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7262-IDTU5262</t>
@@ -4700,7 +4700,7 @@
     <t xml:space="preserve">K23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_263</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_263-IDT_10nt_UDI_i5_263</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7263-IDTU5263</t>
@@ -4712,7 +4712,7 @@
     <t xml:space="preserve">K24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_264</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_264-IDT_10nt_UDI_i5_264</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7264-IDTU5264</t>
@@ -4724,7 +4724,7 @@
     <t xml:space="preserve">L01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_265</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_265-IDT_10nt_UDI_i5_265</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7265-IDTU5265</t>
@@ -4736,7 +4736,7 @@
     <t xml:space="preserve">L02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_266</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_266-IDT_10nt_UDI_i5_266</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7266-IDTU5266</t>
@@ -4748,7 +4748,7 @@
     <t xml:space="preserve">L03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_267</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_267-IDT_10nt_UDI_i5_267</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7267-IDTU5267</t>
@@ -4760,7 +4760,7 @@
     <t xml:space="preserve">L04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_268</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_268-IDT_10nt_UDI_i5_268</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7268-IDTU5268</t>
@@ -4772,7 +4772,7 @@
     <t xml:space="preserve">L05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_269</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_269-IDT_10nt_UDI_i5_269</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7269-IDTU5269</t>
@@ -4784,7 +4784,7 @@
     <t xml:space="preserve">L06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_270</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_270-IDT_10nt_UDI_i5_270</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7270-IDTU5270</t>
@@ -4796,7 +4796,7 @@
     <t xml:space="preserve">L07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_271</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_271-IDT_10nt_UDI_i5_271</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7271-IDTU5271</t>
@@ -4808,7 +4808,7 @@
     <t xml:space="preserve">L08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_272</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_272-IDT_10nt_UDI_i5_272</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7272-IDTU5272</t>
@@ -4820,7 +4820,7 @@
     <t xml:space="preserve">L09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_273</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_273-IDT_10nt_UDI_i5_273</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7273-IDTU5273</t>
@@ -4832,7 +4832,7 @@
     <t xml:space="preserve">L10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_274</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_274-IDT_10nt_UDI_i5_274</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7274-IDTU5274</t>
@@ -4844,7 +4844,7 @@
     <t xml:space="preserve">L11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_275</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_275-IDT_10nt_UDI_i5_275</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7275-IDTU5275</t>
@@ -4856,7 +4856,7 @@
     <t xml:space="preserve">L12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_276</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_276-IDT_10nt_UDI_i5_276</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7276-IDTU5276</t>
@@ -4868,7 +4868,7 @@
     <t xml:space="preserve">L13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_277</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_277-IDT_10nt_UDI_i5_277</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7277-IDTU5277</t>
@@ -4880,7 +4880,7 @@
     <t xml:space="preserve">L14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_278</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_278-IDT_10nt_UDI_i5_278</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7278-IDTU5278</t>
@@ -4892,7 +4892,7 @@
     <t xml:space="preserve">L15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_279</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_279-IDT_10nt_UDI_i5_279</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7279-IDTU5279</t>
@@ -4904,7 +4904,7 @@
     <t xml:space="preserve">L16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_280</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_280-IDT_10nt_UDI_i5_280</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7280-IDTU5280</t>
@@ -4916,7 +4916,7 @@
     <t xml:space="preserve">L17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_281</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_281-IDT_10nt_UDI_i5_281</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7281-IDTU5281</t>
@@ -4928,7 +4928,7 @@
     <t xml:space="preserve">L18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_282</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_282-IDT_10nt_UDI_i5_282</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7282-IDTU5282</t>
@@ -4940,7 +4940,7 @@
     <t xml:space="preserve">L19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_283</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_283-IDT_10nt_UDI_i5_283</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7283-IDTU5283</t>
@@ -4952,7 +4952,7 @@
     <t xml:space="preserve">L20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_284</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_284-IDT_10nt_UDI_i5_284</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7284-IDTU5284</t>
@@ -4964,7 +4964,7 @@
     <t xml:space="preserve">L21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_285</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_285-IDT_10nt_UDI_i5_285</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7285-IDTU5285</t>
@@ -4976,7 +4976,7 @@
     <t xml:space="preserve">L22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_286</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_286-IDT_10nt_UDI_i5_286</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7286-IDTU5286</t>
@@ -4988,7 +4988,7 @@
     <t xml:space="preserve">L23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_287</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_287-IDT_10nt_UDI_i5_287</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7287-IDTU5287</t>
@@ -5000,7 +5000,7 @@
     <t xml:space="preserve">L24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_288</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_288-IDT_10nt_UDI_i5_288</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7288-IDTU5288</t>
@@ -5012,7 +5012,7 @@
     <t xml:space="preserve">M01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_289</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_289-IDT_10nt_UDI_i5_289</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7289-IDTU5289</t>
@@ -5024,7 +5024,7 @@
     <t xml:space="preserve">M02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_290</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_290-IDT_10nt_UDI_i5_290</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7290-IDTU5290</t>
@@ -5036,7 +5036,7 @@
     <t xml:space="preserve">M03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_291</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_291-IDT_10nt_UDI_i5_291</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7291-IDTU5291</t>
@@ -5048,7 +5048,7 @@
     <t xml:space="preserve">M04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_292</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_292-IDT_10nt_UDI_i5_292</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7292-IDTU5292</t>
@@ -5060,7 +5060,7 @@
     <t xml:space="preserve">M05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_293</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_293-IDT_10nt_UDI_i5_293</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7293-IDTU5293</t>
@@ -5072,7 +5072,7 @@
     <t xml:space="preserve">M06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_294</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_294-IDT_10nt_UDI_i5_294</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7294-IDTU5294</t>
@@ -5084,7 +5084,7 @@
     <t xml:space="preserve">M07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_295</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_295-IDT_10nt_UDI_i5_295</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7295-IDTU5295</t>
@@ -5096,7 +5096,7 @@
     <t xml:space="preserve">M08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_296</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_296-IDT_10nt_UDI_i5_296</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7296-IDTU5296</t>
@@ -5108,7 +5108,7 @@
     <t xml:space="preserve">M09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_297</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_297-IDT_10nt_UDI_i5_297</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7297-IDTU5297</t>
@@ -5120,7 +5120,7 @@
     <t xml:space="preserve">M10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_298</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_298-IDT_10nt_UDI_i5_298</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7298-IDTU5298</t>
@@ -5132,7 +5132,7 @@
     <t xml:space="preserve">M11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_299</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_299-IDT_10nt_UDI_i5_299</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7299-IDTU5299</t>
@@ -5144,7 +5144,7 @@
     <t xml:space="preserve">M12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_300</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_300-IDT_10nt_UDI_i5_300</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7300-IDTU5300</t>
@@ -5156,7 +5156,7 @@
     <t xml:space="preserve">M13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_301</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_301-IDT_10nt_UDI_i5_301</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7301-IDTU5301</t>
@@ -5168,7 +5168,7 @@
     <t xml:space="preserve">M14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_302</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_302-IDT_10nt_UDI_i5_302</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7302-IDTU5302</t>
@@ -5180,7 +5180,7 @@
     <t xml:space="preserve">M15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_303</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_303-IDT_10nt_UDI_i5_303</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7303-IDTU5303</t>
@@ -5192,7 +5192,7 @@
     <t xml:space="preserve">M16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_304</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_304-IDT_10nt_UDI_i5_304</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7304-IDTU5304</t>
@@ -5204,7 +5204,7 @@
     <t xml:space="preserve">M17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_305</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_305-IDT_10nt_UDI_i5_305</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7305-IDTU5305</t>
@@ -5216,7 +5216,7 @@
     <t xml:space="preserve">M18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_306</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_306-IDT_10nt_UDI_i5_306</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7306-IDTU5306</t>
@@ -5228,7 +5228,7 @@
     <t xml:space="preserve">M19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_307</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_307-IDT_10nt_UDI_i5_307</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7307-IDTU5307</t>
@@ -5240,7 +5240,7 @@
     <t xml:space="preserve">M20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_308</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_308-IDT_10nt_UDI_i5_308</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7308-IDTU5308</t>
@@ -5252,7 +5252,7 @@
     <t xml:space="preserve">M21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_309</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_309-IDT_10nt_UDI_i5_309</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7309-IDTU5309</t>
@@ -5264,7 +5264,7 @@
     <t xml:space="preserve">M22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_310</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_310-IDT_10nt_UDI_i5_310</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7310-IDTU5310</t>
@@ -5276,7 +5276,7 @@
     <t xml:space="preserve">M23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_311</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_311-IDT_10nt_UDI_i5_311</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7311-IDTU5311</t>
@@ -5288,7 +5288,7 @@
     <t xml:space="preserve">M24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_312</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_312-IDT_10nt_UDI_i5_312</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7312-IDTU5312</t>
@@ -5300,7 +5300,7 @@
     <t xml:space="preserve">N01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_313</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_313-IDT_10nt_UDI_i5_313</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7313-IDTU5313</t>
@@ -5312,7 +5312,7 @@
     <t xml:space="preserve">N02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_314</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_314-IDT_10nt_UDI_i5_314</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7314-IDTU5314</t>
@@ -5324,7 +5324,7 @@
     <t xml:space="preserve">N03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_315</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_315-IDT_10nt_UDI_i5_315</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7315-IDTU5315</t>
@@ -5336,7 +5336,7 @@
     <t xml:space="preserve">N04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_316</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_316-IDT_10nt_UDI_i5_316</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7316-IDTU5316</t>
@@ -5348,7 +5348,7 @@
     <t xml:space="preserve">N05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_317</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_317-IDT_10nt_UDI_i5_317</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7317-IDTU5317</t>
@@ -5360,7 +5360,7 @@
     <t xml:space="preserve">N06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_318</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_318-IDT_10nt_UDI_i5_318</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7318-IDTU5318</t>
@@ -5372,7 +5372,7 @@
     <t xml:space="preserve">N07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_319</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_319-IDT_10nt_UDI_i5_319</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7319-IDTU5319</t>
@@ -5384,7 +5384,7 @@
     <t xml:space="preserve">N08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_320</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_320-IDT_10nt_UDI_i5_320</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7320-IDTU5320</t>
@@ -5396,7 +5396,7 @@
     <t xml:space="preserve">N09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_321</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_321-IDT_10nt_UDI_i5_321</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7321-IDTU5321</t>
@@ -5408,7 +5408,7 @@
     <t xml:space="preserve">N10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_322</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_322-IDT_10nt_UDI_i5_322</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7322-IDTU5322</t>
@@ -5420,7 +5420,7 @@
     <t xml:space="preserve">N11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_323</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_323-IDT_10nt_UDI_i5_323</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7323-IDTU5323</t>
@@ -5432,7 +5432,7 @@
     <t xml:space="preserve">N12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_324</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_324-IDT_10nt_UDI_i5_324</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7324-IDTU5324</t>
@@ -5444,7 +5444,7 @@
     <t xml:space="preserve">N13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_325</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_325-IDT_10nt_UDI_i5_325</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7325-IDTU5325</t>
@@ -5456,7 +5456,7 @@
     <t xml:space="preserve">N14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_326</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_326-IDT_10nt_UDI_i5_326</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7326-IDTU5326</t>
@@ -5468,7 +5468,7 @@
     <t xml:space="preserve">N15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_327</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_327-IDT_10nt_UDI_i5_327</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7327-IDTU5327</t>
@@ -5480,7 +5480,7 @@
     <t xml:space="preserve">N16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_328</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_328-IDT_10nt_UDI_i5_328</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7328-IDTU5328</t>
@@ -5492,7 +5492,7 @@
     <t xml:space="preserve">N17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_329</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_329-IDT_10nt_UDI_i5_329</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7329-IDTU5329</t>
@@ -5504,7 +5504,7 @@
     <t xml:space="preserve">N18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_330</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_330-IDT_10nt_UDI_i5_330</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7330-IDTU5330</t>
@@ -5516,7 +5516,7 @@
     <t xml:space="preserve">N19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_331</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_331-IDT_10nt_UDI_i5_331</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7331-IDTU5331</t>
@@ -5528,7 +5528,7 @@
     <t xml:space="preserve">N20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_332</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_332-IDT_10nt_UDI_i5_332</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7332-IDTU5332</t>
@@ -5540,7 +5540,7 @@
     <t xml:space="preserve">N21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_333</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_333-IDT_10nt_UDI_i5_333</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7333-IDTU5333</t>
@@ -5552,7 +5552,7 @@
     <t xml:space="preserve">N22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_334</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_334-IDT_10nt_UDI_i5_334</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7334-IDTU5334</t>
@@ -5564,7 +5564,7 @@
     <t xml:space="preserve">N23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_335</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_335-IDT_10nt_UDI_i5_335</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7335-IDTU5335</t>
@@ -5576,7 +5576,7 @@
     <t xml:space="preserve">N24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_336</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_336-IDT_10nt_UDI_i5_336</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7336-IDTU5336</t>
@@ -5588,7 +5588,7 @@
     <t xml:space="preserve">O01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_337</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_337-IDT_10nt_UDI_i5_337</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7337-IDTU5337</t>
@@ -5600,7 +5600,7 @@
     <t xml:space="preserve">O02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_338</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_338-IDT_10nt_UDI_i5_338</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7338-IDTU5338</t>
@@ -5612,7 +5612,7 @@
     <t xml:space="preserve">O03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_339</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_339-IDT_10nt_UDI_i5_339</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7339-IDTU5339</t>
@@ -5624,7 +5624,7 @@
     <t xml:space="preserve">O04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_340</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_340-IDT_10nt_UDI_i5_340</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7340-IDTU5340</t>
@@ -5636,7 +5636,7 @@
     <t xml:space="preserve">O05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_341</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_341-IDT_10nt_UDI_i5_341</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7341-IDTU5341</t>
@@ -5648,7 +5648,7 @@
     <t xml:space="preserve">O06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_342</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_342-IDT_10nt_UDI_i5_342</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7342-IDTU5342</t>
@@ -5660,7 +5660,7 @@
     <t xml:space="preserve">O07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_343</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_343-IDT_10nt_UDI_i5_343</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7343-IDTU5343</t>
@@ -5672,7 +5672,7 @@
     <t xml:space="preserve">O08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_344</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_344-IDT_10nt_UDI_i5_344</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7344-IDTU5344</t>
@@ -5684,7 +5684,7 @@
     <t xml:space="preserve">O09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_345</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_345-IDT_10nt_UDI_i5_345</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7345-IDTU5345</t>
@@ -5696,7 +5696,7 @@
     <t xml:space="preserve">O10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_346</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_346-IDT_10nt_UDI_i5_346</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7346-IDTU5346</t>
@@ -5708,7 +5708,7 @@
     <t xml:space="preserve">O11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_347</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_347-IDT_10nt_UDI_i5_347</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7347-IDTU5347</t>
@@ -5720,7 +5720,7 @@
     <t xml:space="preserve">O12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_348</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_348-IDT_10nt_UDI_i5_348</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7348-IDTU5348</t>
@@ -5732,7 +5732,7 @@
     <t xml:space="preserve">O13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_349</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_349-IDT_10nt_UDI_i5_349</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7349-IDTU5349</t>
@@ -5744,7 +5744,7 @@
     <t xml:space="preserve">O14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_350</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_350-IDT_10nt_UDI_i5_350</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7350-IDTU5350</t>
@@ -5756,7 +5756,7 @@
     <t xml:space="preserve">O15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_351</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_351-IDT_10nt_UDI_i5_351</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7351-IDTU5351</t>
@@ -5768,7 +5768,7 @@
     <t xml:space="preserve">O16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_352</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_352-IDT_10nt_UDI_i5_352</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7352-IDTU5352</t>
@@ -5780,7 +5780,7 @@
     <t xml:space="preserve">O17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_353</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_353-IDT_10nt_UDI_i5_353</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7353-IDTU5353</t>
@@ -5792,7 +5792,7 @@
     <t xml:space="preserve">O18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_354</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_354-IDT_10nt_UDI_i5_354</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7354-IDTU5354</t>
@@ -5804,7 +5804,7 @@
     <t xml:space="preserve">O19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_355</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_355-IDT_10nt_UDI_i5_355</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7355-IDTU5355</t>
@@ -5816,7 +5816,7 @@
     <t xml:space="preserve">O20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_356</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_356-IDT_10nt_UDI_i5_356</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7356-IDTU5356</t>
@@ -5828,7 +5828,7 @@
     <t xml:space="preserve">O21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_357</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_357-IDT_10nt_UDI_i5_357</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7357-IDTU5357</t>
@@ -5840,7 +5840,7 @@
     <t xml:space="preserve">O22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_358</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_358-IDT_10nt_UDI_i5_358</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7358-IDTU5358</t>
@@ -5852,7 +5852,7 @@
     <t xml:space="preserve">O23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_359</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_359-IDT_10nt_UDI_i5_359</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7359-IDTU5359</t>
@@ -5864,7 +5864,7 @@
     <t xml:space="preserve">O24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_360</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_360-IDT_10nt_UDI_i5_360</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7360-IDTU5360</t>
@@ -5876,7 +5876,7 @@
     <t xml:space="preserve">P01</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_361</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_361-IDT_10nt_UDI_i5_361</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7361-IDTU5361</t>
@@ -5888,7 +5888,7 @@
     <t xml:space="preserve">P02</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_362</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_362-IDT_10nt_UDI_i5_362</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7362-IDTU5362</t>
@@ -5900,7 +5900,7 @@
     <t xml:space="preserve">P03</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_363</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_363-IDT_10nt_UDI_i5_363</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7363-IDTU5363</t>
@@ -5912,7 +5912,7 @@
     <t xml:space="preserve">P04</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_364</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_364-IDT_10nt_UDI_i5_364</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7364-IDTU5364</t>
@@ -5924,7 +5924,7 @@
     <t xml:space="preserve">P05</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_365</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_365-IDT_10nt_UDI_i5_365</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7365-IDTU5365</t>
@@ -5936,7 +5936,7 @@
     <t xml:space="preserve">P06</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_366</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_366-IDT_10nt_UDI_i5_366</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7366-IDTU5366</t>
@@ -5948,7 +5948,7 @@
     <t xml:space="preserve">P07</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_367</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_367-IDT_10nt_UDI_i5_367</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7367-IDTU5367</t>
@@ -5960,7 +5960,7 @@
     <t xml:space="preserve">P08</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_368</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_368-IDT_10nt_UDI_i5_368</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7368-IDTU5368</t>
@@ -5972,7 +5972,7 @@
     <t xml:space="preserve">P09</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_369</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_369-IDT_10nt_UDI_i5_369</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7369-IDTU5369</t>
@@ -5984,7 +5984,7 @@
     <t xml:space="preserve">P10</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_370</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_370-IDT_10nt_UDI_i5_370</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7370-IDTU5370</t>
@@ -5996,7 +5996,7 @@
     <t xml:space="preserve">P11</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_371</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_371-IDT_10nt_UDI_i5_371</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7371-IDTU5371</t>
@@ -6008,7 +6008,7 @@
     <t xml:space="preserve">P12</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_372</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_372-IDT_10nt_UDI_i5_372</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7372-IDTU5372</t>
@@ -6020,7 +6020,7 @@
     <t xml:space="preserve">P13</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_373</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_373-IDT_10nt_UDI_i5_373</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7373-IDTU5373</t>
@@ -6032,7 +6032,7 @@
     <t xml:space="preserve">P14</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_374</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_374-IDT_10nt_UDI_i5_374</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7374-IDTU5374</t>
@@ -6044,7 +6044,7 @@
     <t xml:space="preserve">P15</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_375</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_375-IDT_10nt_UDI_i5_375</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7375-IDTU5375</t>
@@ -6056,7 +6056,7 @@
     <t xml:space="preserve">P16</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_376</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_376-IDT_10nt_UDI_i5_376</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7376-IDTU5376</t>
@@ -6068,7 +6068,7 @@
     <t xml:space="preserve">P17</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_377</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_377-IDT_10nt_UDI_i5_377</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7377-IDTU5377</t>
@@ -6080,7 +6080,7 @@
     <t xml:space="preserve">P18</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_378</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_378-IDT_10nt_UDI_i5_378</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7378-IDTU5378</t>
@@ -6092,7 +6092,7 @@
     <t xml:space="preserve">P19</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_379</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_379-IDT_10nt_UDI_i5_379</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7379-IDTU5379</t>
@@ -6104,7 +6104,7 @@
     <t xml:space="preserve">P20</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_380</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_380-IDT_10nt_UDI_i5_380</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7380-IDTU5380</t>
@@ -6116,7 +6116,7 @@
     <t xml:space="preserve">P21</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_381</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_381-IDT_10nt_UDI_i5_381</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7381-IDTU5381</t>
@@ -6128,7 +6128,7 @@
     <t xml:space="preserve">P22</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_382</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_382-IDT_10nt_UDI_i5_382</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7382-IDTU5382</t>
@@ -6140,7 +6140,7 @@
     <t xml:space="preserve">P23</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_383</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_383-IDT_10nt_UDI_i5_383</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7383-IDTU5383</t>
@@ -6152,7 +6152,7 @@
     <t xml:space="preserve">P24</t>
   </si>
   <si>
-    <t xml:space="preserve">IDT_10nt_UDI_i7_001-IDT_10nt_UDI_i5_384</t>
+    <t xml:space="preserve">IDT_10nt_UDI_i7_384-IDT_10nt_UDI_i5_384</t>
   </si>
   <si>
     <t xml:space="preserve">IDTU7384-IDTU5384</t>
@@ -6473,7 +6473,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.16"/>
@@ -6498,7 +6498,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="36.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="36.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14"/>
@@ -23510,7 +23510,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
@@ -23641,7 +23641,7 @@
         <v>40</v>
       </c>
       <c r="N2" s="10"/>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="0" t="s">
         <v>57</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -23702,7 +23702,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="10"/>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="0" t="s">
         <v>74</v>
       </c>
       <c r="P3" s="10" t="s">
@@ -23761,7 +23761,7 @@
         <v>42</v>
       </c>
       <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="0" t="s">
         <v>89</v>
       </c>
       <c r="P4" s="10" t="s">
@@ -23814,7 +23814,7 @@
         <v>43</v>
       </c>
       <c r="N5" s="11"/>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="0" t="s">
         <v>103</v>
       </c>
       <c r="P5" s="10" t="s">
@@ -23862,7 +23862,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P6" s="10" t="s">
@@ -23910,7 +23910,7 @@
         <v>45</v>
       </c>
       <c r="N7" s="11"/>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="0" t="s">
         <v>127</v>
       </c>
       <c r="P7" s="10" t="s">
@@ -23958,7 +23958,7 @@
         <v>46</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="0" t="s">
         <v>139</v>
       </c>
       <c r="P8" s="10" t="s">
@@ -24000,7 +24000,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="0" t="s">
         <v>150</v>
       </c>
       <c r="P9" s="10" t="s">
@@ -24038,7 +24038,7 @@
         <v>159</v>
       </c>
       <c r="N10" s="11"/>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="0" t="s">
         <v>160</v>
       </c>
       <c r="P10" s="10" t="s">
@@ -24078,7 +24078,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="0" t="s">
         <v>170</v>
       </c>
       <c r="P11" s="10" t="s">
@@ -24113,7 +24113,7 @@
         <v>178</v>
       </c>
       <c r="N12" s="10"/>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="0" t="s">
         <v>179</v>
       </c>
       <c r="P12" s="10" t="s">
@@ -24148,7 +24148,7 @@
         <v>187</v>
       </c>
       <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="0" t="s">
         <v>188</v>
       </c>
       <c r="P13" s="10" t="s">
@@ -24178,7 +24178,7 @@
       <c r="C14" s="10"/>
       <c r="I14" s="13"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="0" t="s">
         <v>195</v>
       </c>
       <c r="P14" s="10" t="s">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="0" t="s">
         <v>203</v>
       </c>
       <c r="P15" s="10" t="s">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="0" t="s">
         <v>211</v>
       </c>
       <c r="P16" s="10" t="s">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="C17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="0" t="s">
         <v>219</v>
       </c>
       <c r="P17" s="10" t="s">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="C18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="0" t="s">
         <v>227</v>
       </c>
       <c r="P18" s="10" t="s">
@@ -24323,7 +24323,7 @@
       </c>
       <c r="C19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="0" t="s">
         <v>235</v>
       </c>
       <c r="P19" s="10" t="s">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="C20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="0" t="s">
         <v>243</v>
       </c>
       <c r="P20" s="10" t="s">
@@ -24381,7 +24381,7 @@
       </c>
       <c r="C21" s="10"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="0" t="s">
         <v>251</v>
       </c>
       <c r="P21" s="10" t="s">
@@ -24410,7 +24410,7 @@
       </c>
       <c r="C22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="10" t="s">
+      <c r="O22" s="0" t="s">
         <v>259</v>
       </c>
       <c r="P22" s="10" t="s">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="10" t="s">
+      <c r="O23" s="0" t="s">
         <v>267</v>
       </c>
       <c r="P23" s="10" t="s">
@@ -24468,7 +24468,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="0" t="s">
         <v>275</v>
       </c>
       <c r="P24" s="10" t="s">
@@ -24497,7 +24497,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="0" t="s">
         <v>283</v>
       </c>
       <c r="P25" s="10" t="s">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="C26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="0" t="s">
         <v>289</v>
       </c>
       <c r="P26" s="10" t="s">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="C27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="0" t="s">
         <v>296</v>
       </c>
       <c r="P27" s="10" t="s">
@@ -24584,7 +24584,7 @@
       </c>
       <c r="C28" s="10"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="0" t="s">
         <v>303</v>
       </c>
       <c r="P28" s="10" t="s">
@@ -24613,7 +24613,7 @@
       </c>
       <c r="C29" s="10"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="0" t="s">
         <v>310</v>
       </c>
       <c r="P29" s="10" t="s">
@@ -24642,7 +24642,7 @@
       </c>
       <c r="C30" s="10"/>
       <c r="N30" s="10"/>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="0" t="s">
         <v>317</v>
       </c>
       <c r="P30" s="10" t="s">
@@ -24671,7 +24671,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="0" t="s">
         <v>324</v>
       </c>
       <c r="P31" s="10" t="s">
@@ -24700,7 +24700,7 @@
       </c>
       <c r="C32" s="10"/>
       <c r="N32" s="10"/>
-      <c r="O32" s="10" t="s">
+      <c r="O32" s="0" t="s">
         <v>331</v>
       </c>
       <c r="P32" s="10" t="s">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="C33" s="10"/>
       <c r="N33" s="10"/>
-      <c r="O33" s="10" t="s">
+      <c r="O33" s="0" t="s">
         <v>338</v>
       </c>
       <c r="P33" s="10" t="s">
@@ -24758,7 +24758,7 @@
       </c>
       <c r="C34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="10" t="s">
+      <c r="O34" s="0" t="s">
         <v>345</v>
       </c>
       <c r="P34" s="10" t="s">
@@ -24787,7 +24787,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="10" t="s">
+      <c r="O35" s="0" t="s">
         <v>352</v>
       </c>
       <c r="P35" s="10" t="s">
@@ -24816,7 +24816,7 @@
       </c>
       <c r="C36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="10" t="s">
+      <c r="O36" s="0" t="s">
         <v>359</v>
       </c>
       <c r="P36" s="10" t="s">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="C37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="10" t="s">
+      <c r="O37" s="0" t="s">
         <v>366</v>
       </c>
       <c r="P37" s="10" t="s">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="C38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="10" t="s">
+      <c r="O38" s="0" t="s">
         <v>373</v>
       </c>
       <c r="P38" s="10" t="s">
@@ -24903,7 +24903,7 @@
       </c>
       <c r="C39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="10" t="s">
+      <c r="O39" s="0" t="s">
         <v>381</v>
       </c>
       <c r="P39" s="10" t="s">
@@ -24932,7 +24932,7 @@
       </c>
       <c r="C40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="10" t="s">
+      <c r="O40" s="0" t="s">
         <v>389</v>
       </c>
       <c r="P40" s="10" t="s">
@@ -24961,7 +24961,7 @@
       </c>
       <c r="C41" s="10"/>
       <c r="N41" s="10"/>
-      <c r="O41" s="10" t="s">
+      <c r="O41" s="0" t="s">
         <v>397</v>
       </c>
       <c r="P41" s="10" t="s">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10" t="s">
+      <c r="O42" s="0" t="s">
         <v>405</v>
       </c>
       <c r="P42" s="10" t="s">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="C43" s="10"/>
       <c r="N43" s="10"/>
-      <c r="O43" s="10" t="s">
+      <c r="O43" s="0" t="s">
         <v>413</v>
       </c>
       <c r="P43" s="10" t="s">
@@ -25048,7 +25048,7 @@
       </c>
       <c r="C44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10" t="s">
+      <c r="O44" s="0" t="s">
         <v>421</v>
       </c>
       <c r="P44" s="10" t="s">
@@ -25077,7 +25077,7 @@
       </c>
       <c r="C45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10" t="s">
+      <c r="O45" s="0" t="s">
         <v>429</v>
       </c>
       <c r="P45" s="10" t="s">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="C46" s="10"/>
       <c r="N46" s="10"/>
-      <c r="O46" s="10" t="s">
+      <c r="O46" s="0" t="s">
         <v>437</v>
       </c>
       <c r="P46" s="10" t="s">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="C47" s="10"/>
       <c r="N47" s="10"/>
-      <c r="O47" s="10" t="s">
+      <c r="O47" s="0" t="s">
         <v>445</v>
       </c>
       <c r="P47" s="10" t="s">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="C48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="10" t="s">
+      <c r="O48" s="0" t="s">
         <v>453</v>
       </c>
       <c r="P48" s="10" t="s">
@@ -25193,7 +25193,7 @@
       </c>
       <c r="C49" s="10"/>
       <c r="N49" s="10"/>
-      <c r="O49" s="10" t="s">
+      <c r="O49" s="0" t="s">
         <v>461</v>
       </c>
       <c r="P49" s="10" t="s">
@@ -25222,7 +25222,7 @@
       </c>
       <c r="C50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="10" t="s">
+      <c r="O50" s="0" t="s">
         <v>467</v>
       </c>
       <c r="P50" s="10" t="s">
@@ -25251,7 +25251,7 @@
       </c>
       <c r="C51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="10" t="s">
+      <c r="O51" s="0" t="s">
         <v>474</v>
       </c>
       <c r="P51" s="10" t="s">
@@ -25280,7 +25280,7 @@
       </c>
       <c r="C52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10" t="s">
+      <c r="O52" s="0" t="s">
         <v>481</v>
       </c>
       <c r="P52" s="10" t="s">
@@ -25309,7 +25309,7 @@
       </c>
       <c r="C53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="10" t="s">
+      <c r="O53" s="0" t="s">
         <v>488</v>
       </c>
       <c r="P53" s="10" t="s">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="C54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10" t="s">
+      <c r="O54" s="0" t="s">
         <v>495</v>
       </c>
       <c r="P54" s="10" t="s">
@@ -25367,7 +25367,7 @@
       </c>
       <c r="C55" s="10"/>
       <c r="N55" s="10"/>
-      <c r="O55" s="10" t="s">
+      <c r="O55" s="0" t="s">
         <v>502</v>
       </c>
       <c r="P55" s="10" t="s">
@@ -25396,7 +25396,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="N56" s="10"/>
-      <c r="O56" s="10" t="s">
+      <c r="O56" s="0" t="s">
         <v>509</v>
       </c>
       <c r="P56" s="10" t="s">
@@ -25425,7 +25425,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="N57" s="10"/>
-      <c r="O57" s="10" t="s">
+      <c r="O57" s="0" t="s">
         <v>516</v>
       </c>
       <c r="P57" s="10" t="s">
@@ -25454,7 +25454,7 @@
       </c>
       <c r="C58" s="10"/>
       <c r="N58" s="10"/>
-      <c r="O58" s="10" t="s">
+      <c r="O58" s="0" t="s">
         <v>523</v>
       </c>
       <c r="P58" s="10" t="s">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="C59" s="10"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="10" t="s">
+      <c r="O59" s="0" t="s">
         <v>530</v>
       </c>
       <c r="P59" s="10" t="s">
@@ -25512,7 +25512,7 @@
       </c>
       <c r="C60" s="10"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="10" t="s">
+      <c r="O60" s="0" t="s">
         <v>537</v>
       </c>
       <c r="P60" s="10" t="s">
@@ -25541,7 +25541,7 @@
       </c>
       <c r="C61" s="10"/>
       <c r="N61" s="10"/>
-      <c r="O61" s="10" t="s">
+      <c r="O61" s="0" t="s">
         <v>544</v>
       </c>
       <c r="P61" s="10" t="s">
@@ -25570,7 +25570,7 @@
       </c>
       <c r="C62" s="10"/>
       <c r="N62" s="10"/>
-      <c r="O62" s="10" t="s">
+      <c r="O62" s="0" t="s">
         <v>551</v>
       </c>
       <c r="P62" s="10" t="s">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="C63" s="10"/>
       <c r="N63" s="10"/>
-      <c r="O63" s="10" t="s">
+      <c r="O63" s="0" t="s">
         <v>559</v>
       </c>
       <c r="P63" s="10" t="s">
@@ -25628,7 +25628,7 @@
       </c>
       <c r="C64" s="10"/>
       <c r="N64" s="10"/>
-      <c r="O64" s="10" t="s">
+      <c r="O64" s="0" t="s">
         <v>567</v>
       </c>
       <c r="P64" s="10" t="s">
@@ -25657,7 +25657,7 @@
       </c>
       <c r="C65" s="10"/>
       <c r="N65" s="10"/>
-      <c r="O65" s="10" t="s">
+      <c r="O65" s="0" t="s">
         <v>575</v>
       </c>
       <c r="P65" s="10" t="s">
@@ -25686,7 +25686,7 @@
       </c>
       <c r="C66" s="10"/>
       <c r="N66" s="10"/>
-      <c r="O66" s="10" t="s">
+      <c r="O66" s="0" t="s">
         <v>583</v>
       </c>
       <c r="P66" s="10" t="s">
@@ -25715,7 +25715,7 @@
       </c>
       <c r="C67" s="10"/>
       <c r="N67" s="10"/>
-      <c r="O67" s="10" t="s">
+      <c r="O67" s="0" t="s">
         <v>591</v>
       </c>
       <c r="P67" s="10" t="s">
@@ -25744,7 +25744,7 @@
       </c>
       <c r="C68" s="10"/>
       <c r="N68" s="10"/>
-      <c r="O68" s="10" t="s">
+      <c r="O68" s="0" t="s">
         <v>599</v>
       </c>
       <c r="P68" s="10" t="s">
@@ -25773,7 +25773,7 @@
       </c>
       <c r="C69" s="10"/>
       <c r="N69" s="10"/>
-      <c r="O69" s="10" t="s">
+      <c r="O69" s="0" t="s">
         <v>607</v>
       </c>
       <c r="P69" s="10" t="s">
@@ -25802,7 +25802,7 @@
       </c>
       <c r="C70" s="10"/>
       <c r="N70" s="10"/>
-      <c r="O70" s="10" t="s">
+      <c r="O70" s="0" t="s">
         <v>615</v>
       </c>
       <c r="P70" s="10" t="s">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="C71" s="10"/>
       <c r="N71" s="10"/>
-      <c r="O71" s="10" t="s">
+      <c r="O71" s="0" t="s">
         <v>623</v>
       </c>
       <c r="P71" s="10" t="s">
@@ -25860,7 +25860,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="N72" s="10"/>
-      <c r="O72" s="10" t="s">
+      <c r="O72" s="0" t="s">
         <v>631</v>
       </c>
       <c r="P72" s="10" t="s">
@@ -25889,7 +25889,7 @@
       </c>
       <c r="C73" s="10"/>
       <c r="N73" s="10"/>
-      <c r="O73" s="10" t="s">
+      <c r="O73" s="0" t="s">
         <v>639</v>
       </c>
       <c r="P73" s="10" t="s">
@@ -25918,7 +25918,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="N74" s="10"/>
-      <c r="O74" s="10" t="s">
+      <c r="O74" s="0" t="s">
         <v>645</v>
       </c>
       <c r="P74" s="10" t="s">
@@ -25947,7 +25947,7 @@
       </c>
       <c r="C75" s="10"/>
       <c r="N75" s="10"/>
-      <c r="O75" s="10" t="s">
+      <c r="O75" s="0" t="s">
         <v>652</v>
       </c>
       <c r="P75" s="10" t="s">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="C76" s="10"/>
       <c r="N76" s="10"/>
-      <c r="O76" s="10" t="s">
+      <c r="O76" s="0" t="s">
         <v>659</v>
       </c>
       <c r="P76" s="10" t="s">
@@ -26005,7 +26005,7 @@
       </c>
       <c r="C77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="O77" s="10" t="s">
+      <c r="O77" s="0" t="s">
         <v>666</v>
       </c>
       <c r="P77" s="10" t="s">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="C78" s="10"/>
       <c r="N78" s="10"/>
-      <c r="O78" s="10" t="s">
+      <c r="O78" s="0" t="s">
         <v>673</v>
       </c>
       <c r="P78" s="10" t="s">
@@ -26063,7 +26063,7 @@
       </c>
       <c r="C79" s="10"/>
       <c r="N79" s="10"/>
-      <c r="O79" s="10" t="s">
+      <c r="O79" s="0" t="s">
         <v>680</v>
       </c>
       <c r="P79" s="10" t="s">
@@ -26092,7 +26092,7 @@
       </c>
       <c r="C80" s="10"/>
       <c r="N80" s="10"/>
-      <c r="O80" s="10" t="s">
+      <c r="O80" s="0" t="s">
         <v>687</v>
       </c>
       <c r="P80" s="10" t="s">
@@ -26121,7 +26121,7 @@
       </c>
       <c r="C81" s="10"/>
       <c r="N81" s="10"/>
-      <c r="O81" s="10" t="s">
+      <c r="O81" s="0" t="s">
         <v>694</v>
       </c>
       <c r="P81" s="10" t="s">
@@ -26150,7 +26150,7 @@
       </c>
       <c r="C82" s="10"/>
       <c r="N82" s="10"/>
-      <c r="O82" s="10" t="s">
+      <c r="O82" s="0" t="s">
         <v>701</v>
       </c>
       <c r="P82" s="10" t="s">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="C83" s="10"/>
       <c r="N83" s="10"/>
-      <c r="O83" s="10" t="s">
+      <c r="O83" s="0" t="s">
         <v>708</v>
       </c>
       <c r="P83" s="10" t="s">
@@ -26208,7 +26208,7 @@
       </c>
       <c r="C84" s="10"/>
       <c r="N84" s="10"/>
-      <c r="O84" s="10" t="s">
+      <c r="O84" s="0" t="s">
         <v>715</v>
       </c>
       <c r="P84" s="10" t="s">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="C85" s="10"/>
       <c r="N85" s="10"/>
-      <c r="O85" s="10" t="s">
+      <c r="O85" s="0" t="s">
         <v>722</v>
       </c>
       <c r="P85" s="10" t="s">
@@ -26266,7 +26266,7 @@
       </c>
       <c r="C86" s="10"/>
       <c r="N86" s="10"/>
-      <c r="O86" s="10" t="s">
+      <c r="O86" s="0" t="s">
         <v>729</v>
       </c>
       <c r="P86" s="10" t="s">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="C87" s="10"/>
       <c r="N87" s="10"/>
-      <c r="O87" s="10" t="s">
+      <c r="O87" s="0" t="s">
         <v>737</v>
       </c>
       <c r="P87" s="10" t="s">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="C88" s="10"/>
       <c r="N88" s="10"/>
-      <c r="O88" s="10" t="s">
+      <c r="O88" s="0" t="s">
         <v>745</v>
       </c>
       <c r="P88" s="10" t="s">
@@ -26353,7 +26353,7 @@
       </c>
       <c r="C89" s="10"/>
       <c r="N89" s="10"/>
-      <c r="O89" s="10" t="s">
+      <c r="O89" s="0" t="s">
         <v>753</v>
       </c>
       <c r="P89" s="10" t="s">
@@ -26382,7 +26382,7 @@
       </c>
       <c r="C90" s="10"/>
       <c r="N90" s="10"/>
-      <c r="O90" s="10" t="s">
+      <c r="O90" s="0" t="s">
         <v>761</v>
       </c>
       <c r="P90" s="10" t="s">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="C91" s="10"/>
       <c r="N91" s="10"/>
-      <c r="O91" s="10" t="s">
+      <c r="O91" s="0" t="s">
         <v>769</v>
       </c>
       <c r="P91" s="10" t="s">
@@ -26440,7 +26440,7 @@
       </c>
       <c r="C92" s="10"/>
       <c r="N92" s="10"/>
-      <c r="O92" s="10" t="s">
+      <c r="O92" s="0" t="s">
         <v>777</v>
       </c>
       <c r="P92" s="10" t="s">
@@ -26469,7 +26469,7 @@
       </c>
       <c r="C93" s="10"/>
       <c r="N93" s="10"/>
-      <c r="O93" s="10" t="s">
+      <c r="O93" s="0" t="s">
         <v>785</v>
       </c>
       <c r="P93" s="10" t="s">
@@ -26498,7 +26498,7 @@
       </c>
       <c r="C94" s="10"/>
       <c r="N94" s="10"/>
-      <c r="O94" s="10" t="s">
+      <c r="O94" s="0" t="s">
         <v>793</v>
       </c>
       <c r="P94" s="10" t="s">
@@ -26527,7 +26527,7 @@
       </c>
       <c r="C95" s="10"/>
       <c r="N95" s="10"/>
-      <c r="O95" s="10" t="s">
+      <c r="O95" s="0" t="s">
         <v>801</v>
       </c>
       <c r="P95" s="10" t="s">
@@ -26556,7 +26556,7 @@
       </c>
       <c r="C96" s="10"/>
       <c r="N96" s="10"/>
-      <c r="O96" s="10" t="s">
+      <c r="O96" s="0" t="s">
         <v>809</v>
       </c>
       <c r="P96" s="10" t="s">
@@ -26585,7 +26585,7 @@
       </c>
       <c r="C97" s="10"/>
       <c r="N97" s="10"/>
-      <c r="O97" s="10" t="s">
+      <c r="O97" s="0" t="s">
         <v>817</v>
       </c>
       <c r="P97" s="10" t="s">
@@ -26611,7 +26611,7 @@
       </c>
       <c r="C98" s="10"/>
       <c r="N98" s="10"/>
-      <c r="O98" s="10" t="s">
+      <c r="O98" s="0" t="s">
         <v>823</v>
       </c>
       <c r="P98" s="10" t="s">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="C99" s="10"/>
       <c r="N99" s="10"/>
-      <c r="O99" s="10" t="s">
+      <c r="O99" s="0" t="s">
         <v>828</v>
       </c>
       <c r="P99" s="10" t="s">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="C100" s="10"/>
       <c r="N100" s="10"/>
-      <c r="O100" s="10" t="s">
+      <c r="O100" s="0" t="s">
         <v>833</v>
       </c>
       <c r="P100" s="10" t="s">
@@ -26683,7 +26683,7 @@
       </c>
       <c r="C101" s="10"/>
       <c r="N101" s="10"/>
-      <c r="O101" s="10" t="s">
+      <c r="O101" s="0" t="s">
         <v>838</v>
       </c>
       <c r="P101" s="10" t="s">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="C102" s="10"/>
       <c r="N102" s="10"/>
-      <c r="O102" s="10" t="s">
+      <c r="O102" s="0" t="s">
         <v>843</v>
       </c>
       <c r="P102" s="10" t="s">
@@ -26731,7 +26731,7 @@
       </c>
       <c r="C103" s="10"/>
       <c r="N103" s="10"/>
-      <c r="O103" s="10" t="s">
+      <c r="O103" s="0" t="s">
         <v>848</v>
       </c>
       <c r="P103" s="10" t="s">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="C104" s="10"/>
       <c r="N104" s="10"/>
-      <c r="O104" s="10" t="s">
+      <c r="O104" s="0" t="s">
         <v>853</v>
       </c>
       <c r="P104" s="10" t="s">
@@ -26779,7 +26779,7 @@
       </c>
       <c r="C105" s="10"/>
       <c r="N105" s="10"/>
-      <c r="O105" s="10" t="s">
+      <c r="O105" s="0" t="s">
         <v>858</v>
       </c>
       <c r="P105" s="10" t="s">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="C106" s="10"/>
       <c r="N106" s="10"/>
-      <c r="O106" s="10" t="s">
+      <c r="O106" s="0" t="s">
         <v>863</v>
       </c>
       <c r="P106" s="10" t="s">
@@ -26827,7 +26827,7 @@
       </c>
       <c r="C107" s="10"/>
       <c r="N107" s="10"/>
-      <c r="O107" s="10" t="s">
+      <c r="O107" s="0" t="s">
         <v>868</v>
       </c>
       <c r="P107" s="10" t="s">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="C108" s="10"/>
       <c r="N108" s="10"/>
-      <c r="O108" s="10" t="s">
+      <c r="O108" s="0" t="s">
         <v>873</v>
       </c>
       <c r="P108" s="10" t="s">
@@ -26875,7 +26875,7 @@
       </c>
       <c r="C109" s="10"/>
       <c r="N109" s="10"/>
-      <c r="O109" s="10" t="s">
+      <c r="O109" s="0" t="s">
         <v>878</v>
       </c>
       <c r="P109" s="10" t="s">
@@ -26897,7 +26897,7 @@
       </c>
       <c r="C110" s="10"/>
       <c r="N110" s="10"/>
-      <c r="O110" s="10" t="s">
+      <c r="O110" s="0" t="s">
         <v>883</v>
       </c>
       <c r="P110" s="10" t="s">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="C111" s="10"/>
       <c r="N111" s="10"/>
-      <c r="O111" s="10" t="s">
+      <c r="O111" s="0" t="s">
         <v>888</v>
       </c>
       <c r="P111" s="10" t="s">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="C112" s="10"/>
       <c r="N112" s="10"/>
-      <c r="O112" s="10" t="s">
+      <c r="O112" s="0" t="s">
         <v>893</v>
       </c>
       <c r="P112" s="10" t="s">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="C113" s="10"/>
       <c r="N113" s="10"/>
-      <c r="O113" s="10" t="s">
+      <c r="O113" s="0" t="s">
         <v>898</v>
       </c>
       <c r="P113" s="10" t="s">
@@ -26985,7 +26985,7 @@
       </c>
       <c r="C114" s="10"/>
       <c r="N114" s="10"/>
-      <c r="O114" s="10" t="s">
+      <c r="O114" s="0" t="s">
         <v>903</v>
       </c>
       <c r="P114" s="10" t="s">
@@ -27007,7 +27007,7 @@
       </c>
       <c r="C115" s="10"/>
       <c r="N115" s="10"/>
-      <c r="O115" s="10" t="s">
+      <c r="O115" s="0" t="s">
         <v>908</v>
       </c>
       <c r="P115" s="10" t="s">
@@ -27029,7 +27029,7 @@
       </c>
       <c r="C116" s="10"/>
       <c r="N116" s="10"/>
-      <c r="O116" s="10" t="s">
+      <c r="O116" s="0" t="s">
         <v>913</v>
       </c>
       <c r="P116" s="10" t="s">
@@ -27051,7 +27051,7 @@
       </c>
       <c r="C117" s="10"/>
       <c r="N117" s="10"/>
-      <c r="O117" s="10" t="s">
+      <c r="O117" s="0" t="s">
         <v>918</v>
       </c>
       <c r="P117" s="10" t="s">
@@ -27073,7 +27073,7 @@
       </c>
       <c r="C118" s="10"/>
       <c r="N118" s="10"/>
-      <c r="O118" s="10" t="s">
+      <c r="O118" s="0" t="s">
         <v>923</v>
       </c>
       <c r="P118" s="10" t="s">
@@ -27095,7 +27095,7 @@
       </c>
       <c r="C119" s="10"/>
       <c r="N119" s="10"/>
-      <c r="O119" s="10" t="s">
+      <c r="O119" s="0" t="s">
         <v>928</v>
       </c>
       <c r="P119" s="10" t="s">
@@ -27117,7 +27117,7 @@
       </c>
       <c r="C120" s="10"/>
       <c r="N120" s="10"/>
-      <c r="O120" s="10" t="s">
+      <c r="O120" s="0" t="s">
         <v>933</v>
       </c>
       <c r="P120" s="10" t="s">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="C121" s="10"/>
       <c r="N121" s="10"/>
-      <c r="O121" s="10" t="s">
+      <c r="O121" s="0" t="s">
         <v>938</v>
       </c>
       <c r="P121" s="10" t="s">
@@ -27161,7 +27161,7 @@
       </c>
       <c r="C122" s="10"/>
       <c r="N122" s="10"/>
-      <c r="O122" s="10" t="s">
+      <c r="O122" s="0" t="s">
         <v>942</v>
       </c>
       <c r="P122" s="10" t="s">
@@ -27183,7 +27183,7 @@
       </c>
       <c r="C123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="10" t="s">
+      <c r="O123" s="0" t="s">
         <v>946</v>
       </c>
       <c r="P123" s="10" t="s">
@@ -27205,7 +27205,7 @@
       </c>
       <c r="C124" s="10"/>
       <c r="N124" s="10"/>
-      <c r="O124" s="10" t="s">
+      <c r="O124" s="0" t="s">
         <v>950</v>
       </c>
       <c r="P124" s="10" t="s">
@@ -27227,7 +27227,7 @@
       </c>
       <c r="C125" s="10"/>
       <c r="N125" s="10"/>
-      <c r="O125" s="10" t="s">
+      <c r="O125" s="0" t="s">
         <v>954</v>
       </c>
       <c r="P125" s="10" t="s">
@@ -27249,7 +27249,7 @@
       </c>
       <c r="C126" s="10"/>
       <c r="N126" s="10"/>
-      <c r="O126" s="10" t="s">
+      <c r="O126" s="0" t="s">
         <v>958</v>
       </c>
       <c r="P126" s="10" t="s">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="C127" s="10"/>
       <c r="N127" s="10"/>
-      <c r="O127" s="10" t="s">
+      <c r="O127" s="0" t="s">
         <v>962</v>
       </c>
       <c r="P127" s="10" t="s">
@@ -27293,7 +27293,7 @@
       </c>
       <c r="C128" s="10"/>
       <c r="N128" s="10"/>
-      <c r="O128" s="10" t="s">
+      <c r="O128" s="0" t="s">
         <v>966</v>
       </c>
       <c r="P128" s="10" t="s">
@@ -27315,7 +27315,7 @@
       </c>
       <c r="C129" s="10"/>
       <c r="N129" s="10"/>
-      <c r="O129" s="10" t="s">
+      <c r="O129" s="0" t="s">
         <v>970</v>
       </c>
       <c r="P129" s="10" t="s">
@@ -27337,7 +27337,7 @@
       </c>
       <c r="C130" s="10"/>
       <c r="N130" s="10"/>
-      <c r="O130" s="10" t="s">
+      <c r="O130" s="0" t="s">
         <v>974</v>
       </c>
       <c r="P130" s="10" t="s">
@@ -27359,7 +27359,7 @@
       </c>
       <c r="C131" s="10"/>
       <c r="N131" s="10"/>
-      <c r="O131" s="10" t="s">
+      <c r="O131" s="0" t="s">
         <v>978</v>
       </c>
       <c r="P131" s="10" t="s">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="C132" s="10"/>
       <c r="N132" s="10"/>
-      <c r="O132" s="10" t="s">
+      <c r="O132" s="0" t="s">
         <v>982</v>
       </c>
       <c r="P132" s="10" t="s">
@@ -27403,7 +27403,7 @@
       </c>
       <c r="C133" s="10"/>
       <c r="N133" s="10"/>
-      <c r="O133" s="10" t="s">
+      <c r="O133" s="0" t="s">
         <v>986</v>
       </c>
       <c r="P133" s="10" t="s">
@@ -27425,7 +27425,7 @@
       </c>
       <c r="C134" s="10"/>
       <c r="N134" s="10"/>
-      <c r="O134" s="10" t="s">
+      <c r="O134" s="0" t="s">
         <v>991</v>
       </c>
       <c r="P134" s="10" t="s">
@@ -27447,7 +27447,7 @@
       </c>
       <c r="C135" s="10"/>
       <c r="N135" s="10"/>
-      <c r="O135" s="10" t="s">
+      <c r="O135" s="0" t="s">
         <v>996</v>
       </c>
       <c r="P135" s="10" t="s">
@@ -27469,7 +27469,7 @@
       </c>
       <c r="C136" s="10"/>
       <c r="N136" s="10"/>
-      <c r="O136" s="10" t="s">
+      <c r="O136" s="0" t="s">
         <v>1001</v>
       </c>
       <c r="P136" s="10" t="s">
@@ -27491,7 +27491,7 @@
       </c>
       <c r="C137" s="10"/>
       <c r="N137" s="10"/>
-      <c r="O137" s="10" t="s">
+      <c r="O137" s="0" t="s">
         <v>1006</v>
       </c>
       <c r="P137" s="10" t="s">
@@ -27513,7 +27513,7 @@
       </c>
       <c r="C138" s="10"/>
       <c r="N138" s="10"/>
-      <c r="O138" s="10" t="s">
+      <c r="O138" s="0" t="s">
         <v>1011</v>
       </c>
       <c r="P138" s="10" t="s">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="C139" s="10"/>
       <c r="N139" s="10"/>
-      <c r="O139" s="10" t="s">
+      <c r="O139" s="0" t="s">
         <v>1016</v>
       </c>
       <c r="P139" s="10" t="s">
@@ -27557,7 +27557,7 @@
       </c>
       <c r="C140" s="10"/>
       <c r="N140" s="10"/>
-      <c r="O140" s="10" t="s">
+      <c r="O140" s="0" t="s">
         <v>1021</v>
       </c>
       <c r="P140" s="10" t="s">
@@ -27579,7 +27579,7 @@
       </c>
       <c r="C141" s="10"/>
       <c r="N141" s="10"/>
-      <c r="O141" s="10" t="s">
+      <c r="O141" s="0" t="s">
         <v>1026</v>
       </c>
       <c r="P141" s="10" t="s">
@@ -27601,7 +27601,7 @@
       </c>
       <c r="C142" s="10"/>
       <c r="N142" s="10"/>
-      <c r="O142" s="10" t="s">
+      <c r="O142" s="0" t="s">
         <v>1031</v>
       </c>
       <c r="P142" s="10" t="s">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="C143" s="10"/>
       <c r="N143" s="10"/>
-      <c r="O143" s="10" t="s">
+      <c r="O143" s="0" t="s">
         <v>1036</v>
       </c>
       <c r="P143" s="10" t="s">
@@ -27645,7 +27645,7 @@
       </c>
       <c r="C144" s="10"/>
       <c r="N144" s="10"/>
-      <c r="O144" s="10" t="s">
+      <c r="O144" s="0" t="s">
         <v>1041</v>
       </c>
       <c r="P144" s="10" t="s">
@@ -27667,7 +27667,7 @@
       </c>
       <c r="C145" s="10"/>
       <c r="N145" s="10"/>
-      <c r="O145" s="10" t="s">
+      <c r="O145" s="0" t="s">
         <v>1046</v>
       </c>
       <c r="P145" s="10" t="s">
@@ -27689,7 +27689,7 @@
       </c>
       <c r="C146" s="10"/>
       <c r="N146" s="10"/>
-      <c r="O146" s="10" t="s">
+      <c r="O146" s="0" t="s">
         <v>1050</v>
       </c>
       <c r="P146" s="10" t="s">
@@ -27711,7 +27711,7 @@
       </c>
       <c r="C147" s="10"/>
       <c r="N147" s="10"/>
-      <c r="O147" s="10" t="s">
+      <c r="O147" s="0" t="s">
         <v>1054</v>
       </c>
       <c r="P147" s="10" t="s">
@@ -27733,7 +27733,7 @@
       </c>
       <c r="C148" s="10"/>
       <c r="N148" s="10"/>
-      <c r="O148" s="10" t="s">
+      <c r="O148" s="0" t="s">
         <v>1058</v>
       </c>
       <c r="P148" s="10" t="s">
@@ -27755,7 +27755,7 @@
       </c>
       <c r="C149" s="10"/>
       <c r="N149" s="10"/>
-      <c r="O149" s="10" t="s">
+      <c r="O149" s="0" t="s">
         <v>1062</v>
       </c>
       <c r="P149" s="10" t="s">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="C150" s="10"/>
       <c r="N150" s="10"/>
-      <c r="O150" s="10" t="s">
+      <c r="O150" s="0" t="s">
         <v>1066</v>
       </c>
       <c r="P150" s="10" t="s">
@@ -27799,7 +27799,7 @@
       </c>
       <c r="C151" s="10"/>
       <c r="N151" s="10"/>
-      <c r="O151" s="10" t="s">
+      <c r="O151" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="P151" s="10" t="s">
@@ -27821,7 +27821,7 @@
       </c>
       <c r="C152" s="10"/>
       <c r="N152" s="10"/>
-      <c r="O152" s="10" t="s">
+      <c r="O152" s="0" t="s">
         <v>1074</v>
       </c>
       <c r="P152" s="10" t="s">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="C153" s="10"/>
       <c r="N153" s="10"/>
-      <c r="O153" s="10" t="s">
+      <c r="O153" s="0" t="s">
         <v>1078</v>
       </c>
       <c r="P153" s="10" t="s">
@@ -27865,7 +27865,7 @@
       </c>
       <c r="C154" s="10"/>
       <c r="N154" s="10"/>
-      <c r="O154" s="10" t="s">
+      <c r="O154" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="P154" s="10" t="s">
@@ -27887,7 +27887,7 @@
       </c>
       <c r="C155" s="10"/>
       <c r="N155" s="10"/>
-      <c r="O155" s="10" t="s">
+      <c r="O155" s="0" t="s">
         <v>1086</v>
       </c>
       <c r="P155" s="10" t="s">
@@ -27909,7 +27909,7 @@
       </c>
       <c r="C156" s="10"/>
       <c r="N156" s="10"/>
-      <c r="O156" s="10" t="s">
+      <c r="O156" s="0" t="s">
         <v>1090</v>
       </c>
       <c r="P156" s="10" t="s">
@@ -27931,7 +27931,7 @@
       </c>
       <c r="C157" s="10"/>
       <c r="N157" s="10"/>
-      <c r="O157" s="10" t="s">
+      <c r="O157" s="0" t="s">
         <v>1094</v>
       </c>
       <c r="P157" s="10" t="s">
@@ -27953,7 +27953,7 @@
       </c>
       <c r="C158" s="10"/>
       <c r="N158" s="10"/>
-      <c r="O158" s="10" t="s">
+      <c r="O158" s="0" t="s">
         <v>1099</v>
       </c>
       <c r="P158" s="10" t="s">
@@ -27975,7 +27975,7 @@
       </c>
       <c r="C159" s="10"/>
       <c r="N159" s="10"/>
-      <c r="O159" s="10" t="s">
+      <c r="O159" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="P159" s="10" t="s">
@@ -27997,7 +27997,7 @@
       </c>
       <c r="C160" s="10"/>
       <c r="N160" s="10"/>
-      <c r="O160" s="10" t="s">
+      <c r="O160" s="0" t="s">
         <v>1109</v>
       </c>
       <c r="P160" s="10" t="s">
@@ -28019,7 +28019,7 @@
       </c>
       <c r="C161" s="10"/>
       <c r="N161" s="10"/>
-      <c r="O161" s="10" t="s">
+      <c r="O161" s="0" t="s">
         <v>1114</v>
       </c>
       <c r="P161" s="10" t="s">
@@ -28041,7 +28041,7 @@
       </c>
       <c r="C162" s="10"/>
       <c r="N162" s="10"/>
-      <c r="O162" s="10" t="s">
+      <c r="O162" s="0" t="s">
         <v>1119</v>
       </c>
       <c r="P162" s="10" t="s">
@@ -28063,7 +28063,7 @@
       </c>
       <c r="C163" s="10"/>
       <c r="N163" s="10"/>
-      <c r="O163" s="10" t="s">
+      <c r="O163" s="0" t="s">
         <v>1124</v>
       </c>
       <c r="P163" s="10" t="s">
@@ -28085,7 +28085,7 @@
       </c>
       <c r="C164" s="10"/>
       <c r="N164" s="10"/>
-      <c r="O164" s="10" t="s">
+      <c r="O164" s="0" t="s">
         <v>1129</v>
       </c>
       <c r="P164" s="10" t="s">
@@ -28107,7 +28107,7 @@
       </c>
       <c r="C165" s="10"/>
       <c r="N165" s="10"/>
-      <c r="O165" s="10" t="s">
+      <c r="O165" s="0" t="s">
         <v>1134</v>
       </c>
       <c r="P165" s="10" t="s">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="C166" s="10"/>
       <c r="N166" s="10"/>
-      <c r="O166" s="10" t="s">
+      <c r="O166" s="0" t="s">
         <v>1139</v>
       </c>
       <c r="P166" s="10" t="s">
@@ -28151,7 +28151,7 @@
       </c>
       <c r="C167" s="10"/>
       <c r="N167" s="10"/>
-      <c r="O167" s="10" t="s">
+      <c r="O167" s="0" t="s">
         <v>1144</v>
       </c>
       <c r="P167" s="10" t="s">
@@ -28173,7 +28173,7 @@
       </c>
       <c r="C168" s="10"/>
       <c r="N168" s="10"/>
-      <c r="O168" s="10" t="s">
+      <c r="O168" s="0" t="s">
         <v>1149</v>
       </c>
       <c r="P168" s="10" t="s">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="C169" s="10"/>
       <c r="N169" s="10"/>
-      <c r="O169" s="10" t="s">
+      <c r="O169" s="0" t="s">
         <v>1154</v>
       </c>
       <c r="P169" s="10" t="s">
@@ -28217,7 +28217,7 @@
       </c>
       <c r="C170" s="10"/>
       <c r="N170" s="10"/>
-      <c r="O170" s="10" t="s">
+      <c r="O170" s="0" t="s">
         <v>1158</v>
       </c>
       <c r="P170" s="10" t="s">
@@ -28239,7 +28239,7 @@
       </c>
       <c r="C171" s="10"/>
       <c r="N171" s="10"/>
-      <c r="O171" s="10" t="s">
+      <c r="O171" s="0" t="s">
         <v>1162</v>
       </c>
       <c r="P171" s="10" t="s">
@@ -28261,7 +28261,7 @@
       </c>
       <c r="C172" s="10"/>
       <c r="N172" s="10"/>
-      <c r="O172" s="10" t="s">
+      <c r="O172" s="0" t="s">
         <v>1166</v>
       </c>
       <c r="P172" s="10" t="s">
@@ -28283,7 +28283,7 @@
       </c>
       <c r="C173" s="10"/>
       <c r="N173" s="10"/>
-      <c r="O173" s="10" t="s">
+      <c r="O173" s="0" t="s">
         <v>1170</v>
       </c>
       <c r="P173" s="10" t="s">
@@ -28305,7 +28305,7 @@
       </c>
       <c r="C174" s="10"/>
       <c r="N174" s="10"/>
-      <c r="O174" s="10" t="s">
+      <c r="O174" s="0" t="s">
         <v>1174</v>
       </c>
       <c r="P174" s="10" t="s">
@@ -28327,7 +28327,7 @@
       </c>
       <c r="C175" s="10"/>
       <c r="N175" s="10"/>
-      <c r="O175" s="10" t="s">
+      <c r="O175" s="0" t="s">
         <v>1178</v>
       </c>
       <c r="P175" s="10" t="s">
@@ -28349,7 +28349,7 @@
       </c>
       <c r="C176" s="10"/>
       <c r="N176" s="10"/>
-      <c r="O176" s="10" t="s">
+      <c r="O176" s="0" t="s">
         <v>1182</v>
       </c>
       <c r="P176" s="10" t="s">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="C177" s="10"/>
       <c r="N177" s="10"/>
-      <c r="O177" s="10" t="s">
+      <c r="O177" s="0" t="s">
         <v>1186</v>
       </c>
       <c r="P177" s="10" t="s">
@@ -28393,7 +28393,7 @@
       </c>
       <c r="C178" s="10"/>
       <c r="N178" s="10"/>
-      <c r="O178" s="10" t="s">
+      <c r="O178" s="0" t="s">
         <v>1190</v>
       </c>
       <c r="P178" s="10" t="s">
@@ -28415,7 +28415,7 @@
       </c>
       <c r="C179" s="10"/>
       <c r="N179" s="10"/>
-      <c r="O179" s="10" t="s">
+      <c r="O179" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="P179" s="10" t="s">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="C180" s="10"/>
       <c r="N180" s="10"/>
-      <c r="O180" s="10" t="s">
+      <c r="O180" s="0" t="s">
         <v>1198</v>
       </c>
       <c r="P180" s="10" t="s">
@@ -28459,7 +28459,7 @@
       </c>
       <c r="C181" s="10"/>
       <c r="N181" s="10"/>
-      <c r="O181" s="10" t="s">
+      <c r="O181" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="P181" s="10" t="s">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="C182" s="10"/>
       <c r="N182" s="10"/>
-      <c r="O182" s="10" t="s">
+      <c r="O182" s="0" t="s">
         <v>1207</v>
       </c>
       <c r="P182" s="10" t="s">
@@ -28503,7 +28503,7 @@
       </c>
       <c r="C183" s="10"/>
       <c r="N183" s="10"/>
-      <c r="O183" s="10" t="s">
+      <c r="O183" s="0" t="s">
         <v>1212</v>
       </c>
       <c r="P183" s="10" t="s">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="C184" s="10"/>
       <c r="N184" s="10"/>
-      <c r="O184" s="10" t="s">
+      <c r="O184" s="0" t="s">
         <v>1217</v>
       </c>
       <c r="P184" s="10" t="s">
@@ -28547,7 +28547,7 @@
       </c>
       <c r="C185" s="10"/>
       <c r="N185" s="10"/>
-      <c r="O185" s="10" t="s">
+      <c r="O185" s="0" t="s">
         <v>1222</v>
       </c>
       <c r="P185" s="10" t="s">
@@ -28569,7 +28569,7 @@
       </c>
       <c r="C186" s="10"/>
       <c r="N186" s="10"/>
-      <c r="O186" s="10" t="s">
+      <c r="O186" s="0" t="s">
         <v>1227</v>
       </c>
       <c r="P186" s="10" t="s">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="C187" s="10"/>
       <c r="N187" s="10"/>
-      <c r="O187" s="10" t="s">
+      <c r="O187" s="0" t="s">
         <v>1232</v>
       </c>
       <c r="P187" s="10" t="s">
@@ -28613,7 +28613,7 @@
       </c>
       <c r="C188" s="10"/>
       <c r="N188" s="10"/>
-      <c r="O188" s="10" t="s">
+      <c r="O188" s="0" t="s">
         <v>1237</v>
       </c>
       <c r="P188" s="10" t="s">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="C189" s="10"/>
       <c r="N189" s="10"/>
-      <c r="O189" s="10" t="s">
+      <c r="O189" s="0" t="s">
         <v>1242</v>
       </c>
       <c r="P189" s="10" t="s">
@@ -28657,7 +28657,7 @@
       </c>
       <c r="C190" s="10"/>
       <c r="N190" s="10"/>
-      <c r="O190" s="10" t="s">
+      <c r="O190" s="0" t="s">
         <v>1247</v>
       </c>
       <c r="P190" s="10" t="s">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="C191" s="10"/>
       <c r="N191" s="10"/>
-      <c r="O191" s="10" t="s">
+      <c r="O191" s="0" t="s">
         <v>1252</v>
       </c>
       <c r="P191" s="10" t="s">
@@ -28701,7 +28701,7 @@
       </c>
       <c r="C192" s="10"/>
       <c r="N192" s="10"/>
-      <c r="O192" s="10" t="s">
+      <c r="O192" s="0" t="s">
         <v>1257</v>
       </c>
       <c r="P192" s="10" t="s">
@@ -28723,7 +28723,7 @@
       </c>
       <c r="C193" s="10"/>
       <c r="N193" s="10"/>
-      <c r="O193" s="10" t="s">
+      <c r="O193" s="0" t="s">
         <v>1262</v>
       </c>
       <c r="P193" s="10" t="s">
@@ -28745,7 +28745,7 @@
       </c>
       <c r="C194" s="10"/>
       <c r="N194" s="10"/>
-      <c r="O194" s="10" t="s">
+      <c r="O194" s="0" t="s">
         <v>1267</v>
       </c>
       <c r="P194" s="10" t="s">
@@ -28765,7 +28765,7 @@
       </c>
       <c r="C195" s="10"/>
       <c r="N195" s="10"/>
-      <c r="O195" s="10" t="s">
+      <c r="O195" s="0" t="s">
         <v>1271</v>
       </c>
       <c r="P195" s="10" t="s">
@@ -28785,7 +28785,7 @@
       </c>
       <c r="C196" s="10"/>
       <c r="N196" s="10"/>
-      <c r="O196" s="10" t="s">
+      <c r="O196" s="0" t="s">
         <v>1275</v>
       </c>
       <c r="P196" s="10" t="s">
@@ -28805,7 +28805,7 @@
       </c>
       <c r="C197" s="10"/>
       <c r="N197" s="10"/>
-      <c r="O197" s="10" t="s">
+      <c r="O197" s="0" t="s">
         <v>1279</v>
       </c>
       <c r="P197" s="10" t="s">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="C198" s="10"/>
       <c r="N198" s="10"/>
-      <c r="O198" s="10" t="s">
+      <c r="O198" s="0" t="s">
         <v>1283</v>
       </c>
       <c r="P198" s="10" t="s">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="C199" s="10"/>
       <c r="N199" s="10"/>
-      <c r="O199" s="10" t="s">
+      <c r="O199" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="P199" s="10" t="s">
@@ -28865,7 +28865,7 @@
       </c>
       <c r="C200" s="10"/>
       <c r="N200" s="10"/>
-      <c r="O200" s="10" t="s">
+      <c r="O200" s="0" t="s">
         <v>1291</v>
       </c>
       <c r="P200" s="10" t="s">
@@ -28885,7 +28885,7 @@
       </c>
       <c r="C201" s="10"/>
       <c r="N201" s="10"/>
-      <c r="O201" s="10" t="s">
+      <c r="O201" s="0" t="s">
         <v>1295</v>
       </c>
       <c r="P201" s="10" t="s">
@@ -28905,7 +28905,7 @@
       </c>
       <c r="C202" s="10"/>
       <c r="N202" s="10"/>
-      <c r="O202" s="10" t="s">
+      <c r="O202" s="0" t="s">
         <v>1299</v>
       </c>
       <c r="P202" s="10" t="s">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="C203" s="10"/>
       <c r="N203" s="10"/>
-      <c r="O203" s="10" t="s">
+      <c r="O203" s="0" t="s">
         <v>1303</v>
       </c>
       <c r="P203" s="10" t="s">
@@ -28945,7 +28945,7 @@
       </c>
       <c r="C204" s="10"/>
       <c r="N204" s="10"/>
-      <c r="O204" s="10" t="s">
+      <c r="O204" s="0" t="s">
         <v>1307</v>
       </c>
       <c r="P204" s="10" t="s">
@@ -28965,7 +28965,7 @@
       </c>
       <c r="C205" s="10"/>
       <c r="N205" s="10"/>
-      <c r="O205" s="10" t="s">
+      <c r="O205" s="0" t="s">
         <v>1311</v>
       </c>
       <c r="P205" s="10" t="s">
@@ -28985,7 +28985,7 @@
       </c>
       <c r="C206" s="10"/>
       <c r="N206" s="10"/>
-      <c r="O206" s="10" t="s">
+      <c r="O206" s="0" t="s">
         <v>1315</v>
       </c>
       <c r="P206" s="10" t="s">
@@ -29005,7 +29005,7 @@
       </c>
       <c r="C207" s="10"/>
       <c r="N207" s="10"/>
-      <c r="O207" s="10" t="s">
+      <c r="O207" s="0" t="s">
         <v>1319</v>
       </c>
       <c r="P207" s="10" t="s">
@@ -29025,7 +29025,7 @@
       </c>
       <c r="C208" s="10"/>
       <c r="N208" s="10"/>
-      <c r="O208" s="10" t="s">
+      <c r="O208" s="0" t="s">
         <v>1323</v>
       </c>
       <c r="P208" s="10" t="s">
@@ -29045,7 +29045,7 @@
       </c>
       <c r="C209" s="10"/>
       <c r="N209" s="10"/>
-      <c r="O209" s="10" t="s">
+      <c r="O209" s="0" t="s">
         <v>1327</v>
       </c>
       <c r="P209" s="10" t="s">
@@ -29065,7 +29065,7 @@
       </c>
       <c r="C210" s="10"/>
       <c r="N210" s="10"/>
-      <c r="O210" s="10" t="s">
+      <c r="O210" s="0" t="s">
         <v>1331</v>
       </c>
       <c r="P210" s="10" t="s">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="C211" s="10"/>
       <c r="N211" s="10"/>
-      <c r="O211" s="10" t="s">
+      <c r="O211" s="0" t="s">
         <v>1335</v>
       </c>
       <c r="P211" s="10" t="s">
@@ -29105,7 +29105,7 @@
       </c>
       <c r="C212" s="10"/>
       <c r="N212" s="10"/>
-      <c r="O212" s="10" t="s">
+      <c r="O212" s="0" t="s">
         <v>1339</v>
       </c>
       <c r="P212" s="10" t="s">
@@ -29125,7 +29125,7 @@
       </c>
       <c r="C213" s="10"/>
       <c r="N213" s="10"/>
-      <c r="O213" s="10" t="s">
+      <c r="O213" s="0" t="s">
         <v>1343</v>
       </c>
       <c r="P213" s="10" t="s">
@@ -29145,7 +29145,7 @@
       </c>
       <c r="C214" s="10"/>
       <c r="N214" s="10"/>
-      <c r="O214" s="10" t="s">
+      <c r="O214" s="0" t="s">
         <v>1347</v>
       </c>
       <c r="P214" s="10" t="s">
@@ -29165,7 +29165,7 @@
       </c>
       <c r="C215" s="10"/>
       <c r="N215" s="10"/>
-      <c r="O215" s="10" t="s">
+      <c r="O215" s="0" t="s">
         <v>1351</v>
       </c>
       <c r="P215" s="10" t="s">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="C216" s="10"/>
       <c r="N216" s="10"/>
-      <c r="O216" s="10" t="s">
+      <c r="O216" s="0" t="s">
         <v>1355</v>
       </c>
       <c r="P216" s="10" t="s">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="C217" s="10"/>
       <c r="N217" s="10"/>
-      <c r="O217" s="10" t="s">
+      <c r="O217" s="0" t="s">
         <v>1359</v>
       </c>
       <c r="P217" s="10" t="s">
@@ -29225,7 +29225,7 @@
       </c>
       <c r="C218" s="10"/>
       <c r="N218" s="10"/>
-      <c r="O218" s="10" t="s">
+      <c r="O218" s="0" t="s">
         <v>1363</v>
       </c>
       <c r="P218" s="10" t="s">
@@ -29245,7 +29245,7 @@
       </c>
       <c r="C219" s="10"/>
       <c r="N219" s="10"/>
-      <c r="O219" s="10" t="s">
+      <c r="O219" s="0" t="s">
         <v>1367</v>
       </c>
       <c r="P219" s="10" t="s">
@@ -29265,7 +29265,7 @@
       </c>
       <c r="C220" s="10"/>
       <c r="N220" s="10"/>
-      <c r="O220" s="10" t="s">
+      <c r="O220" s="0" t="s">
         <v>1371</v>
       </c>
       <c r="P220" s="10" t="s">
@@ -29285,7 +29285,7 @@
       </c>
       <c r="C221" s="10"/>
       <c r="N221" s="10"/>
-      <c r="O221" s="10" t="s">
+      <c r="O221" s="0" t="s">
         <v>1375</v>
       </c>
       <c r="P221" s="10" t="s">
@@ -29305,7 +29305,7 @@
       </c>
       <c r="C222" s="10"/>
       <c r="N222" s="10"/>
-      <c r="O222" s="10" t="s">
+      <c r="O222" s="0" t="s">
         <v>1379</v>
       </c>
       <c r="P222" s="10" t="s">
@@ -29325,7 +29325,7 @@
       </c>
       <c r="C223" s="10"/>
       <c r="N223" s="10"/>
-      <c r="O223" s="10" t="s">
+      <c r="O223" s="0" t="s">
         <v>1383</v>
       </c>
       <c r="P223" s="10" t="s">
@@ -29345,7 +29345,7 @@
       </c>
       <c r="C224" s="10"/>
       <c r="N224" s="10"/>
-      <c r="O224" s="10" t="s">
+      <c r="O224" s="0" t="s">
         <v>1387</v>
       </c>
       <c r="P224" s="10" t="s">
@@ -29365,7 +29365,7 @@
       </c>
       <c r="C225" s="10"/>
       <c r="N225" s="10"/>
-      <c r="O225" s="10" t="s">
+      <c r="O225" s="0" t="s">
         <v>1391</v>
       </c>
       <c r="P225" s="10" t="s">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="C226" s="10"/>
       <c r="N226" s="10"/>
-      <c r="O226" s="10" t="s">
+      <c r="O226" s="0" t="s">
         <v>1395</v>
       </c>
       <c r="P226" s="10" t="s">
@@ -29405,7 +29405,7 @@
       </c>
       <c r="C227" s="10"/>
       <c r="N227" s="10"/>
-      <c r="O227" s="10" t="s">
+      <c r="O227" s="0" t="s">
         <v>1399</v>
       </c>
       <c r="P227" s="10" t="s">
@@ -29425,7 +29425,7 @@
       </c>
       <c r="C228" s="10"/>
       <c r="N228" s="10"/>
-      <c r="O228" s="10" t="s">
+      <c r="O228" s="0" t="s">
         <v>1403</v>
       </c>
       <c r="P228" s="10" t="s">
@@ -29445,7 +29445,7 @@
       </c>
       <c r="C229" s="10"/>
       <c r="N229" s="10"/>
-      <c r="O229" s="10" t="s">
+      <c r="O229" s="0" t="s">
         <v>1407</v>
       </c>
       <c r="P229" s="10" t="s">
@@ -29465,7 +29465,7 @@
       </c>
       <c r="C230" s="10"/>
       <c r="N230" s="10"/>
-      <c r="O230" s="10" t="s">
+      <c r="O230" s="0" t="s">
         <v>1411</v>
       </c>
       <c r="P230" s="10" t="s">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="C231" s="10"/>
       <c r="N231" s="10"/>
-      <c r="O231" s="10" t="s">
+      <c r="O231" s="0" t="s">
         <v>1415</v>
       </c>
       <c r="P231" s="10" t="s">
@@ -29505,7 +29505,7 @@
       </c>
       <c r="C232" s="10"/>
       <c r="N232" s="10"/>
-      <c r="O232" s="10" t="s">
+      <c r="O232" s="0" t="s">
         <v>1419</v>
       </c>
       <c r="P232" s="10" t="s">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="C233" s="10"/>
       <c r="N233" s="10"/>
-      <c r="O233" s="10" t="s">
+      <c r="O233" s="0" t="s">
         <v>1423</v>
       </c>
       <c r="P233" s="10" t="s">
@@ -29545,7 +29545,7 @@
       </c>
       <c r="C234" s="10"/>
       <c r="N234" s="10"/>
-      <c r="O234" s="10" t="s">
+      <c r="O234" s="0" t="s">
         <v>1427</v>
       </c>
       <c r="P234" s="10" t="s">
@@ -29565,7 +29565,7 @@
       </c>
       <c r="C235" s="10"/>
       <c r="N235" s="10"/>
-      <c r="O235" s="10" t="s">
+      <c r="O235" s="0" t="s">
         <v>1431</v>
       </c>
       <c r="P235" s="10" t="s">
@@ -29585,7 +29585,7 @@
       </c>
       <c r="C236" s="10"/>
       <c r="N236" s="10"/>
-      <c r="O236" s="10" t="s">
+      <c r="O236" s="0" t="s">
         <v>1435</v>
       </c>
       <c r="P236" s="10" t="s">
@@ -29605,7 +29605,7 @@
       </c>
       <c r="C237" s="10"/>
       <c r="N237" s="10"/>
-      <c r="O237" s="10" t="s">
+      <c r="O237" s="0" t="s">
         <v>1439</v>
       </c>
       <c r="P237" s="10" t="s">
@@ -29625,7 +29625,7 @@
       </c>
       <c r="C238" s="10"/>
       <c r="N238" s="10"/>
-      <c r="O238" s="10" t="s">
+      <c r="O238" s="0" t="s">
         <v>1443</v>
       </c>
       <c r="P238" s="10" t="s">
@@ -29645,7 +29645,7 @@
       </c>
       <c r="C239" s="10"/>
       <c r="N239" s="10"/>
-      <c r="O239" s="10" t="s">
+      <c r="O239" s="0" t="s">
         <v>1447</v>
       </c>
       <c r="P239" s="10" t="s">
@@ -29665,7 +29665,7 @@
       </c>
       <c r="C240" s="10"/>
       <c r="N240" s="10"/>
-      <c r="O240" s="10" t="s">
+      <c r="O240" s="0" t="s">
         <v>1451</v>
       </c>
       <c r="P240" s="10" t="s">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="C241" s="10"/>
       <c r="N241" s="10"/>
-      <c r="O241" s="10" t="s">
+      <c r="O241" s="0" t="s">
         <v>1455</v>
       </c>
       <c r="P241" s="10" t="s">
@@ -29705,7 +29705,7 @@
       </c>
       <c r="C242" s="10"/>
       <c r="N242" s="10"/>
-      <c r="O242" s="10" t="s">
+      <c r="O242" s="0" t="s">
         <v>1459</v>
       </c>
       <c r="P242" s="10" t="s">
@@ -29725,7 +29725,7 @@
       </c>
       <c r="C243" s="10"/>
       <c r="N243" s="10"/>
-      <c r="O243" s="10" t="s">
+      <c r="O243" s="0" t="s">
         <v>1463</v>
       </c>
       <c r="P243" s="10" t="s">
@@ -29745,7 +29745,7 @@
       </c>
       <c r="C244" s="10"/>
       <c r="N244" s="10"/>
-      <c r="O244" s="10" t="s">
+      <c r="O244" s="0" t="s">
         <v>1467</v>
       </c>
       <c r="P244" s="10" t="s">
@@ -29765,7 +29765,7 @@
       </c>
       <c r="C245" s="10"/>
       <c r="N245" s="10"/>
-      <c r="O245" s="10" t="s">
+      <c r="O245" s="0" t="s">
         <v>1471</v>
       </c>
       <c r="P245" s="10" t="s">
@@ -29785,7 +29785,7 @@
       </c>
       <c r="C246" s="10"/>
       <c r="N246" s="10"/>
-      <c r="O246" s="10" t="s">
+      <c r="O246" s="0" t="s">
         <v>1475</v>
       </c>
       <c r="P246" s="10" t="s">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="C247" s="10"/>
       <c r="N247" s="10"/>
-      <c r="O247" s="10" t="s">
+      <c r="O247" s="0" t="s">
         <v>1479</v>
       </c>
       <c r="P247" s="10" t="s">
@@ -29825,7 +29825,7 @@
       </c>
       <c r="C248" s="10"/>
       <c r="N248" s="10"/>
-      <c r="O248" s="10" t="s">
+      <c r="O248" s="0" t="s">
         <v>1483</v>
       </c>
       <c r="P248" s="10" t="s">
@@ -29845,7 +29845,7 @@
       </c>
       <c r="C249" s="10"/>
       <c r="N249" s="10"/>
-      <c r="O249" s="10" t="s">
+      <c r="O249" s="0" t="s">
         <v>1487</v>
       </c>
       <c r="P249" s="10" t="s">
@@ -29865,7 +29865,7 @@
       </c>
       <c r="C250" s="10"/>
       <c r="N250" s="10"/>
-      <c r="O250" s="10" t="s">
+      <c r="O250" s="0" t="s">
         <v>1491</v>
       </c>
       <c r="P250" s="10" t="s">
@@ -29885,7 +29885,7 @@
       </c>
       <c r="C251" s="10"/>
       <c r="N251" s="10"/>
-      <c r="O251" s="10" t="s">
+      <c r="O251" s="0" t="s">
         <v>1495</v>
       </c>
       <c r="P251" s="10" t="s">
@@ -29905,7 +29905,7 @@
       </c>
       <c r="C252" s="10"/>
       <c r="N252" s="10"/>
-      <c r="O252" s="10" t="s">
+      <c r="O252" s="0" t="s">
         <v>1499</v>
       </c>
       <c r="P252" s="10" t="s">
@@ -29925,7 +29925,7 @@
       </c>
       <c r="C253" s="10"/>
       <c r="N253" s="10"/>
-      <c r="O253" s="10" t="s">
+      <c r="O253" s="0" t="s">
         <v>1503</v>
       </c>
       <c r="P253" s="10" t="s">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="C254" s="10"/>
       <c r="N254" s="10"/>
-      <c r="O254" s="10" t="s">
+      <c r="O254" s="0" t="s">
         <v>1507</v>
       </c>
       <c r="P254" s="10" t="s">
@@ -29965,7 +29965,7 @@
       </c>
       <c r="C255" s="10"/>
       <c r="N255" s="10"/>
-      <c r="O255" s="10" t="s">
+      <c r="O255" s="0" t="s">
         <v>1511</v>
       </c>
       <c r="P255" s="10" t="s">
@@ -29985,7 +29985,7 @@
       </c>
       <c r="C256" s="10"/>
       <c r="N256" s="10"/>
-      <c r="O256" s="10" t="s">
+      <c r="O256" s="0" t="s">
         <v>1515</v>
       </c>
       <c r="P256" s="10" t="s">
@@ -30005,7 +30005,7 @@
       </c>
       <c r="C257" s="10"/>
       <c r="N257" s="10"/>
-      <c r="O257" s="10" t="s">
+      <c r="O257" s="0" t="s">
         <v>1519</v>
       </c>
       <c r="P257" s="10" t="s">
@@ -30025,7 +30025,7 @@
       </c>
       <c r="C258" s="10"/>
       <c r="N258" s="10"/>
-      <c r="O258" s="10" t="s">
+      <c r="O258" s="0" t="s">
         <v>1523</v>
       </c>
       <c r="P258" s="10" t="s">
@@ -30045,7 +30045,7 @@
       </c>
       <c r="C259" s="10"/>
       <c r="N259" s="10"/>
-      <c r="O259" s="10" t="s">
+      <c r="O259" s="0" t="s">
         <v>1527</v>
       </c>
       <c r="P259" s="10" t="s">
@@ -30065,7 +30065,7 @@
       </c>
       <c r="C260" s="10"/>
       <c r="N260" s="10"/>
-      <c r="O260" s="10" t="s">
+      <c r="O260" s="0" t="s">
         <v>1531</v>
       </c>
       <c r="P260" s="10" t="s">
@@ -30085,7 +30085,7 @@
       </c>
       <c r="C261" s="10"/>
       <c r="N261" s="10"/>
-      <c r="O261" s="10" t="s">
+      <c r="O261" s="0" t="s">
         <v>1535</v>
       </c>
       <c r="P261" s="10" t="s">
@@ -30105,7 +30105,7 @@
       </c>
       <c r="C262" s="10"/>
       <c r="N262" s="10"/>
-      <c r="O262" s="10" t="s">
+      <c r="O262" s="0" t="s">
         <v>1539</v>
       </c>
       <c r="P262" s="10" t="s">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="C263" s="10"/>
       <c r="N263" s="10"/>
-      <c r="O263" s="10" t="s">
+      <c r="O263" s="0" t="s">
         <v>1543</v>
       </c>
       <c r="P263" s="10" t="s">
@@ -30145,7 +30145,7 @@
       </c>
       <c r="C264" s="10"/>
       <c r="N264" s="10"/>
-      <c r="O264" s="10" t="s">
+      <c r="O264" s="0" t="s">
         <v>1547</v>
       </c>
       <c r="P264" s="10" t="s">
@@ -30165,7 +30165,7 @@
       </c>
       <c r="C265" s="10"/>
       <c r="N265" s="10"/>
-      <c r="O265" s="10" t="s">
+      <c r="O265" s="0" t="s">
         <v>1551</v>
       </c>
       <c r="P265" s="10" t="s">
@@ -30185,7 +30185,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="N266" s="10"/>
-      <c r="O266" s="10" t="s">
+      <c r="O266" s="0" t="s">
         <v>1555</v>
       </c>
       <c r="P266" s="10" t="s">
@@ -30205,7 +30205,7 @@
       </c>
       <c r="C267" s="10"/>
       <c r="N267" s="10"/>
-      <c r="O267" s="10" t="s">
+      <c r="O267" s="0" t="s">
         <v>1559</v>
       </c>
       <c r="P267" s="10" t="s">
@@ -30225,7 +30225,7 @@
       </c>
       <c r="C268" s="10"/>
       <c r="N268" s="10"/>
-      <c r="O268" s="10" t="s">
+      <c r="O268" s="0" t="s">
         <v>1563</v>
       </c>
       <c r="P268" s="10" t="s">
@@ -30245,7 +30245,7 @@
       </c>
       <c r="C269" s="10"/>
       <c r="N269" s="10"/>
-      <c r="O269" s="10" t="s">
+      <c r="O269" s="0" t="s">
         <v>1567</v>
       </c>
       <c r="P269" s="10" t="s">
@@ -30265,7 +30265,7 @@
       </c>
       <c r="C270" s="10"/>
       <c r="N270" s="10"/>
-      <c r="O270" s="10" t="s">
+      <c r="O270" s="0" t="s">
         <v>1571</v>
       </c>
       <c r="P270" s="10" t="s">
@@ -30285,7 +30285,7 @@
       </c>
       <c r="C271" s="10"/>
       <c r="N271" s="10"/>
-      <c r="O271" s="10" t="s">
+      <c r="O271" s="0" t="s">
         <v>1575</v>
       </c>
       <c r="P271" s="10" t="s">
@@ -30305,7 +30305,7 @@
       </c>
       <c r="C272" s="10"/>
       <c r="N272" s="10"/>
-      <c r="O272" s="10" t="s">
+      <c r="O272" s="0" t="s">
         <v>1579</v>
       </c>
       <c r="P272" s="10" t="s">
@@ -30325,7 +30325,7 @@
       </c>
       <c r="C273" s="10"/>
       <c r="N273" s="10"/>
-      <c r="O273" s="10" t="s">
+      <c r="O273" s="0" t="s">
         <v>1583</v>
       </c>
       <c r="P273" s="10" t="s">
@@ -30345,7 +30345,7 @@
       </c>
       <c r="C274" s="10"/>
       <c r="N274" s="10"/>
-      <c r="O274" s="10" t="s">
+      <c r="O274" s="0" t="s">
         <v>1587</v>
       </c>
       <c r="P274" s="10" t="s">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="C275" s="10"/>
       <c r="N275" s="10"/>
-      <c r="O275" s="10" t="s">
+      <c r="O275" s="0" t="s">
         <v>1591</v>
       </c>
       <c r="P275" s="10" t="s">
@@ -30385,7 +30385,7 @@
       </c>
       <c r="C276" s="10"/>
       <c r="N276" s="10"/>
-      <c r="O276" s="10" t="s">
+      <c r="O276" s="0" t="s">
         <v>1595</v>
       </c>
       <c r="P276" s="10" t="s">
@@ -30405,7 +30405,7 @@
       </c>
       <c r="C277" s="10"/>
       <c r="N277" s="10"/>
-      <c r="O277" s="10" t="s">
+      <c r="O277" s="0" t="s">
         <v>1599</v>
       </c>
       <c r="P277" s="10" t="s">
@@ -30425,7 +30425,7 @@
       </c>
       <c r="C278" s="10"/>
       <c r="N278" s="10"/>
-      <c r="O278" s="10" t="s">
+      <c r="O278" s="0" t="s">
         <v>1603</v>
       </c>
       <c r="P278" s="10" t="s">
@@ -30445,7 +30445,7 @@
       </c>
       <c r="C279" s="10"/>
       <c r="N279" s="10"/>
-      <c r="O279" s="10" t="s">
+      <c r="O279" s="0" t="s">
         <v>1607</v>
       </c>
       <c r="P279" s="10" t="s">
@@ -30465,7 +30465,7 @@
       </c>
       <c r="C280" s="10"/>
       <c r="N280" s="10"/>
-      <c r="O280" s="10" t="s">
+      <c r="O280" s="0" t="s">
         <v>1611</v>
       </c>
       <c r="P280" s="10" t="s">
@@ -30485,7 +30485,7 @@
       </c>
       <c r="C281" s="10"/>
       <c r="N281" s="10"/>
-      <c r="O281" s="10" t="s">
+      <c r="O281" s="0" t="s">
         <v>1615</v>
       </c>
       <c r="P281" s="10" t="s">
@@ -30505,7 +30505,7 @@
       </c>
       <c r="C282" s="10"/>
       <c r="N282" s="10"/>
-      <c r="O282" s="10" t="s">
+      <c r="O282" s="0" t="s">
         <v>1619</v>
       </c>
       <c r="P282" s="10" t="s">
@@ -30525,7 +30525,7 @@
       </c>
       <c r="C283" s="10"/>
       <c r="N283" s="10"/>
-      <c r="O283" s="10" t="s">
+      <c r="O283" s="0" t="s">
         <v>1623</v>
       </c>
       <c r="P283" s="10" t="s">
@@ -30545,7 +30545,7 @@
       </c>
       <c r="C284" s="10"/>
       <c r="N284" s="10"/>
-      <c r="O284" s="10" t="s">
+      <c r="O284" s="0" t="s">
         <v>1627</v>
       </c>
       <c r="P284" s="10" t="s">
@@ -30565,7 +30565,7 @@
       </c>
       <c r="C285" s="10"/>
       <c r="N285" s="10"/>
-      <c r="O285" s="10" t="s">
+      <c r="O285" s="0" t="s">
         <v>1631</v>
       </c>
       <c r="P285" s="10" t="s">
@@ -30585,7 +30585,7 @@
       </c>
       <c r="C286" s="10"/>
       <c r="N286" s="10"/>
-      <c r="O286" s="10" t="s">
+      <c r="O286" s="0" t="s">
         <v>1635</v>
       </c>
       <c r="P286" s="10" t="s">
@@ -30605,7 +30605,7 @@
       </c>
       <c r="C287" s="10"/>
       <c r="N287" s="10"/>
-      <c r="O287" s="10" t="s">
+      <c r="O287" s="0" t="s">
         <v>1639</v>
       </c>
       <c r="P287" s="10" t="s">
@@ -30625,7 +30625,7 @@
       </c>
       <c r="C288" s="10"/>
       <c r="N288" s="10"/>
-      <c r="O288" s="10" t="s">
+      <c r="O288" s="0" t="s">
         <v>1643</v>
       </c>
       <c r="P288" s="10" t="s">
@@ -30645,7 +30645,7 @@
       </c>
       <c r="C289" s="10"/>
       <c r="N289" s="10"/>
-      <c r="O289" s="10" t="s">
+      <c r="O289" s="0" t="s">
         <v>1647</v>
       </c>
       <c r="P289" s="10" t="s">
@@ -30665,7 +30665,7 @@
       </c>
       <c r="C290" s="10"/>
       <c r="N290" s="10"/>
-      <c r="O290" s="10" t="s">
+      <c r="O290" s="0" t="s">
         <v>1651</v>
       </c>
       <c r="P290" s="10" t="s">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="C291" s="10"/>
       <c r="N291" s="10"/>
-      <c r="O291" s="10" t="s">
+      <c r="O291" s="0" t="s">
         <v>1655</v>
       </c>
       <c r="P291" s="10" t="s">
@@ -30705,7 +30705,7 @@
       </c>
       <c r="C292" s="10"/>
       <c r="N292" s="10"/>
-      <c r="O292" s="10" t="s">
+      <c r="O292" s="0" t="s">
         <v>1659</v>
       </c>
       <c r="P292" s="10" t="s">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="C293" s="10"/>
       <c r="N293" s="10"/>
-      <c r="O293" s="10" t="s">
+      <c r="O293" s="0" t="s">
         <v>1663</v>
       </c>
       <c r="P293" s="10" t="s">
@@ -30745,7 +30745,7 @@
       </c>
       <c r="C294" s="10"/>
       <c r="N294" s="10"/>
-      <c r="O294" s="10" t="s">
+      <c r="O294" s="0" t="s">
         <v>1667</v>
       </c>
       <c r="P294" s="10" t="s">
@@ -30765,7 +30765,7 @@
       </c>
       <c r="C295" s="10"/>
       <c r="N295" s="10"/>
-      <c r="O295" s="10" t="s">
+      <c r="O295" s="0" t="s">
         <v>1671</v>
       </c>
       <c r="P295" s="10" t="s">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="C296" s="10"/>
       <c r="N296" s="10"/>
-      <c r="O296" s="10" t="s">
+      <c r="O296" s="0" t="s">
         <v>1675</v>
       </c>
       <c r="P296" s="10" t="s">
@@ -30805,7 +30805,7 @@
       </c>
       <c r="C297" s="10"/>
       <c r="N297" s="10"/>
-      <c r="O297" s="10" t="s">
+      <c r="O297" s="0" t="s">
         <v>1679</v>
       </c>
       <c r="P297" s="10" t="s">
@@ -30825,7 +30825,7 @@
       </c>
       <c r="C298" s="10"/>
       <c r="N298" s="10"/>
-      <c r="O298" s="10" t="s">
+      <c r="O298" s="0" t="s">
         <v>1683</v>
       </c>
       <c r="P298" s="10" t="s">
@@ -30845,7 +30845,7 @@
       </c>
       <c r="C299" s="10"/>
       <c r="N299" s="10"/>
-      <c r="O299" s="10" t="s">
+      <c r="O299" s="0" t="s">
         <v>1687</v>
       </c>
       <c r="P299" s="10" t="s">
@@ -30865,7 +30865,7 @@
       </c>
       <c r="C300" s="10"/>
       <c r="N300" s="10"/>
-      <c r="O300" s="10" t="s">
+      <c r="O300" s="0" t="s">
         <v>1691</v>
       </c>
       <c r="P300" s="10" t="s">
@@ -30885,7 +30885,7 @@
       </c>
       <c r="C301" s="10"/>
       <c r="N301" s="10"/>
-      <c r="O301" s="10" t="s">
+      <c r="O301" s="0" t="s">
         <v>1695</v>
       </c>
       <c r="P301" s="10" t="s">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="C302" s="10"/>
       <c r="N302" s="10"/>
-      <c r="O302" s="10" t="s">
+      <c r="O302" s="0" t="s">
         <v>1699</v>
       </c>
       <c r="P302" s="10" t="s">
@@ -30925,7 +30925,7 @@
       </c>
       <c r="C303" s="10"/>
       <c r="N303" s="10"/>
-      <c r="O303" s="10" t="s">
+      <c r="O303" s="0" t="s">
         <v>1703</v>
       </c>
       <c r="P303" s="10" t="s">
@@ -30945,7 +30945,7 @@
       </c>
       <c r="C304" s="10"/>
       <c r="N304" s="10"/>
-      <c r="O304" s="10" t="s">
+      <c r="O304" s="0" t="s">
         <v>1707</v>
       </c>
       <c r="P304" s="10" t="s">
@@ -30965,7 +30965,7 @@
       </c>
       <c r="C305" s="10"/>
       <c r="N305" s="10"/>
-      <c r="O305" s="10" t="s">
+      <c r="O305" s="0" t="s">
         <v>1711</v>
       </c>
       <c r="P305" s="10" t="s">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="C306" s="10"/>
       <c r="N306" s="10"/>
-      <c r="O306" s="10" t="s">
+      <c r="O306" s="0" t="s">
         <v>1715</v>
       </c>
       <c r="P306" s="10" t="s">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="C307" s="10"/>
       <c r="N307" s="10"/>
-      <c r="O307" s="10" t="s">
+      <c r="O307" s="0" t="s">
         <v>1719</v>
       </c>
       <c r="P307" s="10" t="s">
@@ -31025,7 +31025,7 @@
       </c>
       <c r="C308" s="10"/>
       <c r="N308" s="10"/>
-      <c r="O308" s="10" t="s">
+      <c r="O308" s="0" t="s">
         <v>1723</v>
       </c>
       <c r="P308" s="10" t="s">
@@ -31045,7 +31045,7 @@
       </c>
       <c r="C309" s="10"/>
       <c r="N309" s="10"/>
-      <c r="O309" s="10" t="s">
+      <c r="O309" s="0" t="s">
         <v>1727</v>
       </c>
       <c r="P309" s="10" t="s">
@@ -31065,7 +31065,7 @@
       </c>
       <c r="C310" s="10"/>
       <c r="N310" s="10"/>
-      <c r="O310" s="10" t="s">
+      <c r="O310" s="0" t="s">
         <v>1731</v>
       </c>
       <c r="P310" s="10" t="s">
@@ -31085,7 +31085,7 @@
       </c>
       <c r="C311" s="10"/>
       <c r="N311" s="10"/>
-      <c r="O311" s="10" t="s">
+      <c r="O311" s="0" t="s">
         <v>1735</v>
       </c>
       <c r="P311" s="10" t="s">
@@ -31105,7 +31105,7 @@
       </c>
       <c r="C312" s="10"/>
       <c r="N312" s="10"/>
-      <c r="O312" s="10" t="s">
+      <c r="O312" s="0" t="s">
         <v>1739</v>
       </c>
       <c r="P312" s="10" t="s">
@@ -31125,7 +31125,7 @@
       </c>
       <c r="C313" s="10"/>
       <c r="N313" s="10"/>
-      <c r="O313" s="10" t="s">
+      <c r="O313" s="0" t="s">
         <v>1743</v>
       </c>
       <c r="P313" s="10" t="s">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="C314" s="10"/>
       <c r="N314" s="10"/>
-      <c r="O314" s="10" t="s">
+      <c r="O314" s="0" t="s">
         <v>1747</v>
       </c>
       <c r="P314" s="10" t="s">
@@ -31165,7 +31165,7 @@
       </c>
       <c r="C315" s="10"/>
       <c r="N315" s="10"/>
-      <c r="O315" s="10" t="s">
+      <c r="O315" s="0" t="s">
         <v>1751</v>
       </c>
       <c r="P315" s="10" t="s">
@@ -31185,7 +31185,7 @@
       </c>
       <c r="C316" s="10"/>
       <c r="N316" s="10"/>
-      <c r="O316" s="10" t="s">
+      <c r="O316" s="0" t="s">
         <v>1755</v>
       </c>
       <c r="P316" s="10" t="s">
@@ -31205,7 +31205,7 @@
       </c>
       <c r="C317" s="10"/>
       <c r="N317" s="10"/>
-      <c r="O317" s="10" t="s">
+      <c r="O317" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="P317" s="10" t="s">
@@ -31225,7 +31225,7 @@
       </c>
       <c r="C318" s="10"/>
       <c r="N318" s="10"/>
-      <c r="O318" s="10" t="s">
+      <c r="O318" s="0" t="s">
         <v>1763</v>
       </c>
       <c r="P318" s="10" t="s">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="C319" s="10"/>
       <c r="N319" s="10"/>
-      <c r="O319" s="10" t="s">
+      <c r="O319" s="0" t="s">
         <v>1767</v>
       </c>
       <c r="P319" s="10" t="s">
@@ -31265,7 +31265,7 @@
       </c>
       <c r="C320" s="10"/>
       <c r="N320" s="10"/>
-      <c r="O320" s="10" t="s">
+      <c r="O320" s="0" t="s">
         <v>1771</v>
       </c>
       <c r="P320" s="10" t="s">
@@ -31285,7 +31285,7 @@
       </c>
       <c r="C321" s="10"/>
       <c r="N321" s="10"/>
-      <c r="O321" s="10" t="s">
+      <c r="O321" s="0" t="s">
         <v>1775</v>
       </c>
       <c r="P321" s="10" t="s">
@@ -31305,7 +31305,7 @@
       </c>
       <c r="C322" s="10"/>
       <c r="N322" s="10"/>
-      <c r="O322" s="10" t="s">
+      <c r="O322" s="0" t="s">
         <v>1779</v>
       </c>
       <c r="P322" s="10" t="s">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="C323" s="10"/>
       <c r="N323" s="10"/>
-      <c r="O323" s="10" t="s">
+      <c r="O323" s="0" t="s">
         <v>1783</v>
       </c>
       <c r="P323" s="10" t="s">
@@ -31345,7 +31345,7 @@
       </c>
       <c r="C324" s="10"/>
       <c r="N324" s="10"/>
-      <c r="O324" s="10" t="s">
+      <c r="O324" s="0" t="s">
         <v>1787</v>
       </c>
       <c r="P324" s="10" t="s">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="C325" s="10"/>
       <c r="N325" s="10"/>
-      <c r="O325" s="10" t="s">
+      <c r="O325" s="0" t="s">
         <v>1791</v>
       </c>
       <c r="P325" s="10" t="s">
@@ -31385,7 +31385,7 @@
       </c>
       <c r="C326" s="10"/>
       <c r="N326" s="10"/>
-      <c r="O326" s="10" t="s">
+      <c r="O326" s="0" t="s">
         <v>1795</v>
       </c>
       <c r="P326" s="10" t="s">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="C327" s="10"/>
       <c r="N327" s="10"/>
-      <c r="O327" s="10" t="s">
+      <c r="O327" s="0" t="s">
         <v>1799</v>
       </c>
       <c r="P327" s="10" t="s">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="C328" s="10"/>
       <c r="N328" s="10"/>
-      <c r="O328" s="10" t="s">
+      <c r="O328" s="0" t="s">
         <v>1803</v>
       </c>
       <c r="P328" s="10" t="s">
@@ -31445,7 +31445,7 @@
       </c>
       <c r="C329" s="10"/>
       <c r="N329" s="10"/>
-      <c r="O329" s="10" t="s">
+      <c r="O329" s="0" t="s">
         <v>1807</v>
       </c>
       <c r="P329" s="10" t="s">
@@ -31465,7 +31465,7 @@
       </c>
       <c r="C330" s="10"/>
       <c r="N330" s="10"/>
-      <c r="O330" s="10" t="s">
+      <c r="O330" s="0" t="s">
         <v>1811</v>
       </c>
       <c r="P330" s="10" t="s">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="C331" s="10"/>
       <c r="N331" s="10"/>
-      <c r="O331" s="10" t="s">
+      <c r="O331" s="0" t="s">
         <v>1815</v>
       </c>
       <c r="P331" s="10" t="s">
@@ -31505,7 +31505,7 @@
       </c>
       <c r="C332" s="10"/>
       <c r="N332" s="10"/>
-      <c r="O332" s="10" t="s">
+      <c r="O332" s="0" t="s">
         <v>1819</v>
       </c>
       <c r="P332" s="10" t="s">
@@ -31525,7 +31525,7 @@
       </c>
       <c r="C333" s="10"/>
       <c r="N333" s="10"/>
-      <c r="O333" s="10" t="s">
+      <c r="O333" s="0" t="s">
         <v>1823</v>
       </c>
       <c r="P333" s="10" t="s">
@@ -31545,7 +31545,7 @@
       </c>
       <c r="C334" s="10"/>
       <c r="N334" s="10"/>
-      <c r="O334" s="10" t="s">
+      <c r="O334" s="0" t="s">
         <v>1827</v>
       </c>
       <c r="P334" s="10" t="s">
@@ -31565,7 +31565,7 @@
       </c>
       <c r="C335" s="10"/>
       <c r="N335" s="10"/>
-      <c r="O335" s="10" t="s">
+      <c r="O335" s="0" t="s">
         <v>1831</v>
       </c>
       <c r="P335" s="10" t="s">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="C336" s="10"/>
       <c r="N336" s="10"/>
-      <c r="O336" s="10" t="s">
+      <c r="O336" s="0" t="s">
         <v>1835</v>
       </c>
       <c r="P336" s="10" t="s">
@@ -31605,7 +31605,7 @@
       </c>
       <c r="C337" s="10"/>
       <c r="N337" s="10"/>
-      <c r="O337" s="10" t="s">
+      <c r="O337" s="0" t="s">
         <v>1839</v>
       </c>
       <c r="P337" s="10" t="s">
@@ -31625,7 +31625,7 @@
       </c>
       <c r="C338" s="10"/>
       <c r="N338" s="10"/>
-      <c r="O338" s="10" t="s">
+      <c r="O338" s="0" t="s">
         <v>1843</v>
       </c>
       <c r="P338" s="10" t="s">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="C339" s="10"/>
       <c r="N339" s="10"/>
-      <c r="O339" s="10" t="s">
+      <c r="O339" s="0" t="s">
         <v>1847</v>
       </c>
       <c r="P339" s="10" t="s">
@@ -31665,7 +31665,7 @@
       </c>
       <c r="C340" s="10"/>
       <c r="N340" s="10"/>
-      <c r="O340" s="10" t="s">
+      <c r="O340" s="0" t="s">
         <v>1851</v>
       </c>
       <c r="P340" s="10" t="s">
@@ -31685,7 +31685,7 @@
       </c>
       <c r="C341" s="10"/>
       <c r="N341" s="10"/>
-      <c r="O341" s="10" t="s">
+      <c r="O341" s="0" t="s">
         <v>1855</v>
       </c>
       <c r="P341" s="10" t="s">
@@ -31705,7 +31705,7 @@
       </c>
       <c r="C342" s="10"/>
       <c r="N342" s="10"/>
-      <c r="O342" s="10" t="s">
+      <c r="O342" s="0" t="s">
         <v>1859</v>
       </c>
       <c r="P342" s="10" t="s">
@@ -31725,7 +31725,7 @@
       </c>
       <c r="C343" s="10"/>
       <c r="N343" s="10"/>
-      <c r="O343" s="10" t="s">
+      <c r="O343" s="0" t="s">
         <v>1863</v>
       </c>
       <c r="P343" s="10" t="s">
@@ -31745,7 +31745,7 @@
       </c>
       <c r="C344" s="10"/>
       <c r="N344" s="10"/>
-      <c r="O344" s="10" t="s">
+      <c r="O344" s="0" t="s">
         <v>1867</v>
       </c>
       <c r="P344" s="10" t="s">
@@ -31765,7 +31765,7 @@
       </c>
       <c r="C345" s="10"/>
       <c r="N345" s="10"/>
-      <c r="O345" s="10" t="s">
+      <c r="O345" s="0" t="s">
         <v>1871</v>
       </c>
       <c r="P345" s="10" t="s">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="C346" s="10"/>
       <c r="N346" s="10"/>
-      <c r="O346" s="10" t="s">
+      <c r="O346" s="0" t="s">
         <v>1875</v>
       </c>
       <c r="P346" s="10" t="s">
@@ -31805,7 +31805,7 @@
       </c>
       <c r="C347" s="10"/>
       <c r="N347" s="10"/>
-      <c r="O347" s="10" t="s">
+      <c r="O347" s="0" t="s">
         <v>1879</v>
       </c>
       <c r="P347" s="10" t="s">
@@ -31825,7 +31825,7 @@
       </c>
       <c r="C348" s="10"/>
       <c r="N348" s="10"/>
-      <c r="O348" s="10" t="s">
+      <c r="O348" s="0" t="s">
         <v>1883</v>
       </c>
       <c r="P348" s="10" t="s">
@@ -31845,7 +31845,7 @@
       </c>
       <c r="C349" s="10"/>
       <c r="N349" s="10"/>
-      <c r="O349" s="10" t="s">
+      <c r="O349" s="0" t="s">
         <v>1887</v>
       </c>
       <c r="P349" s="10" t="s">
@@ -31865,7 +31865,7 @@
       </c>
       <c r="C350" s="10"/>
       <c r="N350" s="10"/>
-      <c r="O350" s="10" t="s">
+      <c r="O350" s="0" t="s">
         <v>1891</v>
       </c>
       <c r="P350" s="10" t="s">
@@ -31885,7 +31885,7 @@
       </c>
       <c r="C351" s="10"/>
       <c r="N351" s="10"/>
-      <c r="O351" s="10" t="s">
+      <c r="O351" s="0" t="s">
         <v>1895</v>
       </c>
       <c r="P351" s="10" t="s">
@@ -31905,7 +31905,7 @@
       </c>
       <c r="C352" s="10"/>
       <c r="N352" s="10"/>
-      <c r="O352" s="10" t="s">
+      <c r="O352" s="0" t="s">
         <v>1899</v>
       </c>
       <c r="P352" s="10" t="s">
@@ -31925,7 +31925,7 @@
       </c>
       <c r="C353" s="10"/>
       <c r="N353" s="10"/>
-      <c r="O353" s="10" t="s">
+      <c r="O353" s="0" t="s">
         <v>1903</v>
       </c>
       <c r="P353" s="10" t="s">
@@ -31945,7 +31945,7 @@
       </c>
       <c r="C354" s="10"/>
       <c r="N354" s="10"/>
-      <c r="O354" s="10" t="s">
+      <c r="O354" s="0" t="s">
         <v>1907</v>
       </c>
       <c r="P354" s="10" t="s">
@@ -31965,7 +31965,7 @@
       </c>
       <c r="C355" s="10"/>
       <c r="N355" s="10"/>
-      <c r="O355" s="10" t="s">
+      <c r="O355" s="0" t="s">
         <v>1911</v>
       </c>
       <c r="P355" s="10" t="s">
@@ -31985,7 +31985,7 @@
       </c>
       <c r="C356" s="10"/>
       <c r="N356" s="10"/>
-      <c r="O356" s="10" t="s">
+      <c r="O356" s="0" t="s">
         <v>1915</v>
       </c>
       <c r="P356" s="10" t="s">
@@ -32005,7 +32005,7 @@
       </c>
       <c r="C357" s="10"/>
       <c r="N357" s="10"/>
-      <c r="O357" s="10" t="s">
+      <c r="O357" s="0" t="s">
         <v>1919</v>
       </c>
       <c r="P357" s="10" t="s">
@@ -32025,7 +32025,7 @@
       </c>
       <c r="C358" s="10"/>
       <c r="N358" s="10"/>
-      <c r="O358" s="10" t="s">
+      <c r="O358" s="0" t="s">
         <v>1923</v>
       </c>
       <c r="P358" s="10" t="s">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="C359" s="10"/>
       <c r="N359" s="10"/>
-      <c r="O359" s="10" t="s">
+      <c r="O359" s="0" t="s">
         <v>1927</v>
       </c>
       <c r="P359" s="10" t="s">
@@ -32065,7 +32065,7 @@
       </c>
       <c r="C360" s="10"/>
       <c r="N360" s="10"/>
-      <c r="O360" s="10" t="s">
+      <c r="O360" s="0" t="s">
         <v>1931</v>
       </c>
       <c r="P360" s="10" t="s">
@@ -32085,7 +32085,7 @@
       </c>
       <c r="C361" s="10"/>
       <c r="N361" s="10"/>
-      <c r="O361" s="10" t="s">
+      <c r="O361" s="0" t="s">
         <v>1935</v>
       </c>
       <c r="P361" s="10" t="s">
@@ -32105,7 +32105,7 @@
       </c>
       <c r="C362" s="10"/>
       <c r="N362" s="10"/>
-      <c r="O362" s="10" t="s">
+      <c r="O362" s="0" t="s">
         <v>1939</v>
       </c>
       <c r="P362" s="10" t="s">
@@ -32125,7 +32125,7 @@
       </c>
       <c r="C363" s="10"/>
       <c r="N363" s="10"/>
-      <c r="O363" s="10" t="s">
+      <c r="O363" s="0" t="s">
         <v>1943</v>
       </c>
       <c r="P363" s="10" t="s">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="C364" s="10"/>
       <c r="N364" s="10"/>
-      <c r="O364" s="10" t="s">
+      <c r="O364" s="0" t="s">
         <v>1947</v>
       </c>
       <c r="P364" s="10" t="s">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="C365" s="10"/>
       <c r="N365" s="10"/>
-      <c r="O365" s="10" t="s">
+      <c r="O365" s="0" t="s">
         <v>1951</v>
       </c>
       <c r="P365" s="10" t="s">
@@ -32185,7 +32185,7 @@
       </c>
       <c r="C366" s="10"/>
       <c r="N366" s="10"/>
-      <c r="O366" s="10" t="s">
+      <c r="O366" s="0" t="s">
         <v>1955</v>
       </c>
       <c r="P366" s="10" t="s">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="C367" s="10"/>
       <c r="N367" s="10"/>
-      <c r="O367" s="10" t="s">
+      <c r="O367" s="0" t="s">
         <v>1959</v>
       </c>
       <c r="P367" s="10" t="s">
@@ -32225,7 +32225,7 @@
       </c>
       <c r="C368" s="10"/>
       <c r="N368" s="10"/>
-      <c r="O368" s="10" t="s">
+      <c r="O368" s="0" t="s">
         <v>1963</v>
       </c>
       <c r="P368" s="10" t="s">
@@ -32245,7 +32245,7 @@
       </c>
       <c r="C369" s="10"/>
       <c r="N369" s="10"/>
-      <c r="O369" s="10" t="s">
+      <c r="O369" s="0" t="s">
         <v>1967</v>
       </c>
       <c r="P369" s="10" t="s">
@@ -32265,7 +32265,7 @@
       </c>
       <c r="C370" s="10"/>
       <c r="N370" s="10"/>
-      <c r="O370" s="10" t="s">
+      <c r="O370" s="0" t="s">
         <v>1971</v>
       </c>
       <c r="P370" s="10" t="s">
@@ -32285,7 +32285,7 @@
       </c>
       <c r="C371" s="10"/>
       <c r="N371" s="10"/>
-      <c r="O371" s="10" t="s">
+      <c r="O371" s="0" t="s">
         <v>1975</v>
       </c>
       <c r="P371" s="10" t="s">
@@ -32305,7 +32305,7 @@
       </c>
       <c r="C372" s="10"/>
       <c r="N372" s="10"/>
-      <c r="O372" s="10" t="s">
+      <c r="O372" s="0" t="s">
         <v>1979</v>
       </c>
       <c r="P372" s="10" t="s">
@@ -32325,7 +32325,7 @@
       </c>
       <c r="C373" s="10"/>
       <c r="N373" s="10"/>
-      <c r="O373" s="10" t="s">
+      <c r="O373" s="0" t="s">
         <v>1983</v>
       </c>
       <c r="P373" s="10" t="s">
@@ -32345,7 +32345,7 @@
       </c>
       <c r="C374" s="10"/>
       <c r="N374" s="10"/>
-      <c r="O374" s="10" t="s">
+      <c r="O374" s="0" t="s">
         <v>1987</v>
       </c>
       <c r="P374" s="10" t="s">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="C375" s="10"/>
       <c r="N375" s="10"/>
-      <c r="O375" s="10" t="s">
+      <c r="O375" s="0" t="s">
         <v>1991</v>
       </c>
       <c r="P375" s="10" t="s">
@@ -32385,7 +32385,7 @@
       </c>
       <c r="C376" s="10"/>
       <c r="N376" s="10"/>
-      <c r="O376" s="10" t="s">
+      <c r="O376" s="0" t="s">
         <v>1995</v>
       </c>
       <c r="P376" s="10" t="s">
@@ -32405,7 +32405,7 @@
       </c>
       <c r="C377" s="10"/>
       <c r="N377" s="10"/>
-      <c r="O377" s="10" t="s">
+      <c r="O377" s="0" t="s">
         <v>1999</v>
       </c>
       <c r="P377" s="10" t="s">
@@ -32425,7 +32425,7 @@
       </c>
       <c r="C378" s="10"/>
       <c r="N378" s="10"/>
-      <c r="O378" s="10" t="s">
+      <c r="O378" s="0" t="s">
         <v>2003</v>
       </c>
       <c r="P378" s="10" t="s">
@@ -32445,7 +32445,7 @@
       </c>
       <c r="C379" s="10"/>
       <c r="N379" s="10"/>
-      <c r="O379" s="10" t="s">
+      <c r="O379" s="0" t="s">
         <v>2007</v>
       </c>
       <c r="P379" s="10" t="s">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="C380" s="10"/>
       <c r="N380" s="10"/>
-      <c r="O380" s="10" t="s">
+      <c r="O380" s="0" t="s">
         <v>2011</v>
       </c>
       <c r="P380" s="10" t="s">
@@ -32485,7 +32485,7 @@
       </c>
       <c r="C381" s="10"/>
       <c r="N381" s="10"/>
-      <c r="O381" s="10" t="s">
+      <c r="O381" s="0" t="s">
         <v>2015</v>
       </c>
       <c r="P381" s="10" t="s">
@@ -32505,7 +32505,7 @@
       </c>
       <c r="C382" s="10"/>
       <c r="N382" s="10"/>
-      <c r="O382" s="10" t="s">
+      <c r="O382" s="0" t="s">
         <v>2019</v>
       </c>
       <c r="P382" s="10" t="s">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="C383" s="10"/>
       <c r="N383" s="10"/>
-      <c r="O383" s="10" t="s">
+      <c r="O383" s="0" t="s">
         <v>2023</v>
       </c>
       <c r="P383" s="10" t="s">
@@ -32545,7 +32545,7 @@
       </c>
       <c r="C384" s="10"/>
       <c r="N384" s="10"/>
-      <c r="O384" s="10" t="s">
+      <c r="O384" s="0" t="s">
         <v>2027</v>
       </c>
       <c r="P384" s="10" t="s">
@@ -32565,7 +32565,7 @@
       </c>
       <c r="C385" s="10"/>
       <c r="N385" s="10"/>
-      <c r="O385" s="10" t="s">
+      <c r="O385" s="0" t="s">
         <v>2031</v>
       </c>
       <c r="P385" s="10" t="s">
